--- a/sequences/30_localizer.xlsx
+++ b/sequences/30_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
   </si>
   <si>
     <t>flower/flower004.png</t>
   </si>
   <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
   </si>
   <si>
     <t>dog/dog028.png</t>
   </si>
   <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
   </si>
   <si>
     <t>face/face018.png</t>
   </si>
   <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
     <t>car/car018.png</t>
   </si>
   <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
   </si>
   <si>
     <t>flower/flower036.png</t>
   </si>
   <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
+    <t>face/face034.png</t>
   </si>
   <si>
     <t>flower/flower047.png</t>
   </si>
   <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
   </si>
   <si>
     <t>face/face042.png</t>
   </si>
   <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
   </si>
   <si>
     <t>face/face051.png</t>
   </si>
   <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
+    <t>face/face056.png</t>
   </si>
   <si>
     <t>face/face049.png</t>
   </si>
   <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
+    <t>dog/dog062.png</t>
   </si>
   <si>
     <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.311812507351741</v>
+        <v>1.221428093992512</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.592859816500523</v>
+        <v>1.583264609040271</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.551274627298362</v>
+        <v>1.501884729634469</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.676509811812591</v>
+        <v>1.547886386248627</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.640768404404235</v>
+        <v>1.294567299210174</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.196206105705838</v>
+        <v>1.135285512545022</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.67613436352214</v>
+        <v>1.554534105431233</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.384556106453109</v>
+        <v>1.412267070799511</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.653759090212181</v>
+        <v>1.240781341156284</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.270050323237383</v>
+        <v>1.598547635253871</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.569151606990159</v>
+        <v>1.440255275091859</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.340649933322691</v>
+        <v>1.316672902288523</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.416182621919335</v>
+        <v>1.421889848494241</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.490627845900681</v>
+        <v>1.488348829484941</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.517707559858003</v>
+        <v>1.285883908424131</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.731724721994856</v>
+        <v>1.422305428005385</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.645517558271215</v>
+        <v>1.519932273884647</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.615719874135897</v>
+        <v>1.315381426203275</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.457048161420149</v>
+        <v>1.458323380825874</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.481643567921028</v>
+        <v>1.502397998710872</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.876431308070877</v>
+        <v>1.45281500595722</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.56544259575002</v>
+        <v>1.357057982680561</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.675740075526105</v>
+        <v>1.022235826375421</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.438466277163841</v>
+        <v>1.451560585616442</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.489226614120555</v>
+        <v>1.309132546264378</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.610545887014298</v>
+        <v>1.31320794139196</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.245060913699812</v>
+        <v>1.407714357666678</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.758178510911786</v>
+        <v>1.324121202285844</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.620000995909196</v>
+        <v>1.614092715276902</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.519714246315073</v>
+        <v>1.790937636392893</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.528877997275949</v>
+        <v>1.907106492542442</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.698448368472562</v>
+        <v>1.296030223616129</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.72476057771184</v>
+        <v>1.393155556499167</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.664989653557668</v>
+        <v>1.573726208118146</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.519484554915459</v>
+        <v>1.585672964490872</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.607728373290183</v>
+        <v>1.374356003674149</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.59826882481646</v>
+        <v>1.429789262061332</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.452450851271803</v>
+        <v>1.540781887772012</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.408760111146298</v>
+        <v>1.477070746494261</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.47105943952872</v>
+        <v>1.547315347029798</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.377281058855246</v>
+        <v>1.206214014070065</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.500142871039567</v>
+        <v>1.495270979404043</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.334368041371601</v>
+        <v>1.592279506918697</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.61634592307083</v>
+        <v>1.187309901198434</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.626006096357989</v>
+        <v>1.629128086446112</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.599512711506367</v>
+        <v>1.584334211885597</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.181141911093492</v>
+        <v>1.266957145952903</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.563645274869955</v>
+        <v>1.455430839701343</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.673466612562588</v>
+        <v>1.216044707119285</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.459300904861309</v>
+        <v>1.588404195878308</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.572660881316249</v>
+        <v>1.566981400029958</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.67045578667163</v>
+        <v>1.506547711962778</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.287957305524128</v>
+        <v>1.554063039935452</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.691008335993115</v>
+        <v>1.40950717907351</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1.647384137017863</v>
+        <v>1.749191900815525</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.402449386944361</v>
+        <v>1.719294467694729</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>1.394878559897094</v>
+        <v>1.653665142075463</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.637367397342609</v>
+        <v>1.24018721941281</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.585783163997061</v>
+        <v>1.65327800413342</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.379370542482183</v>
+        <v>1.64550398568496</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1.383105334681396</v>
+        <v>1.403291532122406</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.601292286446282</v>
+        <v>1.508897173223764</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.741593449848358</v>
+        <v>1.684472101591463</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.590529949370086</v>
+        <v>1.440343756728001</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.388860479557003</v>
+        <v>1.272531198683036</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>1.411588217827945</v>
+        <v>1.495481082285235</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.619888208342377</v>
+        <v>1.357501844537684</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.147038979989826</v>
+        <v>1.383470895109244</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.333388790615396</v>
+        <v>1.416684779036245</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.492755552915853</v>
+        <v>1.779147732756664</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.379576927143922</v>
+        <v>1.476734036208208</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.328047683399987</v>
+        <v>1.445678367129974</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.368096421509323</v>
+        <v>1.274889665109</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.380070556683758</v>
+        <v>1.475905036196348</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>1.605398846061231</v>
+        <v>1.579007674060685</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.635329254401083</v>
+        <v>1.456353308979374</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.559987211972902</v>
+        <v>1.656743876865287</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.402565992502639</v>
+        <v>1.337996663483685</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.636257662565832</v>
+        <v>1.613195032662216</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.485066433280344</v>
+        <v>1.574624479792376</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.570620797681592</v>
+        <v>1.749264426425149</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.185285003450962</v>
+        <v>1.295666246542137</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.460380197163136</v>
+        <v>1.285723466485671</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.32621418397504</v>
+        <v>1.530275080594437</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.472466138678534</v>
+        <v>1.617438164529473</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.681997301146432</v>
+        <v>1.47217294198899</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.481913440643655</v>
+        <v>1.635124701595939</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.516994618240123</v>
+        <v>1.549399046700457</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.495025568894174</v>
+        <v>1.249523774622778</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.466248403205087</v>
+        <v>1.879279548841793</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.391433598161602</v>
+        <v>1.260833874906792</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.536446962725784</v>
+        <v>1.323389811071042</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.515076057810895</v>
+        <v>1.63600711152288</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.461468622591347</v>
+        <v>1.598620904791341</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.579015555011066</v>
+        <v>1.540404944446931</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>1.505238766283288</v>
+        <v>1.719197182070872</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.492448197659005</v>
+        <v>1.967429029742927</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.516705070777984</v>
+        <v>1.457058767129914</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.488070908322203</v>
+        <v>1.274847363656753</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.419619666722421</v>
+        <v>1.575852656234751</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.497086699484772</v>
+        <v>1.429280784658831</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.47869008200878</v>
+        <v>1.683328603947326</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.556196443040307</v>
+        <v>1.532960410631042</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.380495721476957</v>
+        <v>1.378698458479937</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.632094325262462</v>
+        <v>1.309467375804885</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.490655440479675</v>
+        <v>1.464956716924559</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.494774312419831</v>
+        <v>1.192434374983476</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.507587979477063</v>
+        <v>1.199170612189024</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>1.320074346707222</v>
+        <v>1.410310246217579</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.398243541391163</v>
+        <v>1.513924283650099</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.387263042371047</v>
+        <v>1.759372925114616</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.562629374910948</v>
+        <v>1.526053391287464</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.433359161576126</v>
+        <v>1.428784612883335</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.694222547964453</v>
+        <v>1.524776175561663</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.592219095748909</v>
+        <v>1.55966847560009</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.642865280562477</v>
+        <v>1.749673403608283</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.2649320279737</v>
+        <v>1.45997204557205</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.929331002837008</v>
+        <v>1.5300044652339</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.228164691357872</v>
+        <v>1.345538438338724</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.592194473456948</v>
+        <v>1.39673143998131</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.266437917280838</v>
+        <v>1.474381440651863</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.425662066039492</v>
+        <v>1.505481669010378</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.426886542936763</v>
+        <v>1.467441057997008</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.404109842051829</v>
+        <v>1.761511776371305</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.569532854879669</v>
+        <v>1.731554732057512</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.59730058040222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.504151973338535</v>
+        <v>1.544611287447196</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.65387105513924</v>
+        <v>1.267212636844894</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.542126829106409</v>
+        <v>1.540062888849387</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.620464313102139</v>
+        <v>1.490625358022216</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.551488871517472</v>
+        <v>1.276304676754334</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.659965402487882</v>
+        <v>1.365211840646478</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.314654244621783</v>
+        <v>1.49672495749953</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.349843304085971</v>
+        <v>1.588068196190861</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.22558097778746</v>
+        <v>1.829641021654881</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.28340225950674</v>
+        <v>1.370877426567679</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.313562026962355</v>
+        <v>1.582056408436474</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.581237093155558</v>
+        <v>1.456548728656315</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.380544606547925</v>
+        <v>1.560472350171768</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.170673556649522</v>
+        <v>1.709121155751066</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.348073222496697</v>
+        <v>1.281545172831253</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.386590090480728</v>
+        <v>1.704518056869932</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>1.531301382599709</v>
+        <v>1.779706168874642</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1.727403790643503</v>
+        <v>1.371456976993255</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.699982538348663</v>
+        <v>1.58414936049407</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.51379219083002</v>
+        <v>1.304101602254853</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.625276640856216</v>
+        <v>1.948375970040162</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.21252358897645</v>
+        <v>1.207201514544472</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.402950353737072</v>
+        <v>1.432361127326866</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.448744688011502</v>
+        <v>1.091788846036793</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.625985541923528</v>
+        <v>1.317818082030083</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.407532654483316</v>
+        <v>1.297333797696131</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.539003236329712</v>
+        <v>1.474004354051091</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.31081500468705</v>
+        <v>1.734606644112828</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.542535160767665</v>
+        <v>1.735576147967671</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.41501041175531</v>
+        <v>1.552598065103885</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.739300229441483</v>
+        <v>1.179651490913088</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.377769182464959</v>
+        <v>1.565421714399967</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="F160">
-        <v>1.408818187190642</v>
+        <v>1.459560470774839</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.45416892827114</v>
+        <v>1.334079209804593</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.490243824537587</v>
+        <v>1.383076934913368</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.439998327603288</v>
+        <v>1.440355848541059</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.44888654035386</v>
+        <v>1.36457794564647</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.598699690460866</v>
+        <v>1.476371028148322</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.616004209775123</v>
+        <v>1.598028718825451</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.650891270291128</v>
+        <v>1.433955862707415</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.460980271850722</v>
+        <v>1.487090756964616</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.564124912041894</v>
+        <v>1.563589861801041</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="F170">
-        <v>1.609293261437365</v>
+        <v>1.245790401037572</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.632518338890047</v>
+        <v>1.57317971921227</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.334607248737458</v>
+        <v>1.686301155439797</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.93810389851636</v>
+        <v>1.551007562648122</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.376792386807051</v>
+        <v>1.575153801200508</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.336768188816967</v>
+        <v>1.342743311805285</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.724171046253832</v>
+        <v>1.438185195325819</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.328329603426246</v>
+        <v>1.493557550946226</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.656969867259198</v>
+        <v>1.490012195408273</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.540779003912323</v>
+        <v>1.520603859234078</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.294579215480971</v>
+        <v>1.315876902658891</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1.309107602627757</v>
+        <v>1.342678547233384</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.479493653901428</v>
+        <v>1.532976071344196</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.451266706182571</v>
+        <v>1.568126874164914</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.170237366397076</v>
+        <v>1.476547469063118</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.728211617478081</v>
+        <v>1.500916138437042</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.681621573257287</v>
+        <v>1.540988013750693</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.468959525085826</v>
+        <v>1.541142360490624</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.348475483938876</v>
+        <v>1.267580911026287</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.581227208114525</v>
+        <v>1.469119560801984</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.483158863808541</v>
+        <v>1.35906826091459</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.584754132623509</v>
+        <v>1.384439289025973</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.408850218102714</v>
+        <v>1.462224369899843</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.323869157571581</v>
+        <v>1.647695134142203</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.630980717077791</v>
+        <v>1.499248520873254</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.497145471622332</v>
+        <v>1.444324560881689</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.424430255662306</v>
+        <v>1.17308851680537</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.597580487702356</v>
+        <v>1.516425602204461</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.669019952092467</v>
+        <v>1.448068839335337</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.493052419131178</v>
+        <v>1.498731415330808</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.515034270808198</v>
+        <v>1.269234103259697</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.660784882405339</v>
+        <v>1.421690441114697</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.405523798746757</v>
+        <v>1.551154400592543</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.437572904589669</v>
+        <v>1.428073040352201</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.163110706428859</v>
+        <v>1.442678120557424</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.680744008208063</v>
+        <v>1.512124883817493</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.412469190854974</v>
+        <v>1.474662046593751</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.781321611582933</v>
+        <v>1.419361995731024</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.605491394129367</v>
+        <v>1.561525343807442</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.505261008806617</v>
+        <v>1.5379083846547</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.445074998736845</v>
+        <v>1.416932758233108</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.437875495191997</v>
+        <v>1.458291188607369</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.38462769235948</v>
+        <v>1.423563298326767</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.596477072388545</v>
+        <v>1.34335101117207</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.641892774142361</v>
+        <v>1.409837125326429</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.531504770719631</v>
+        <v>1.59495959104106</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.472849197313773</v>
+        <v>1.493854095223159</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.583418516658834</v>
+        <v>1.524061613570876</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.317999134399479</v>
+        <v>1.33946921001543</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.588803615051926</v>
+        <v>1.455016843664297</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.665825165870117</v>
+        <v>1.590551641016289</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.601632365479009</v>
+        <v>1.540849030944994</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.781053223952462</v>
+        <v>1.453644325273034</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.521218805673815</v>
+        <v>1.531223319565829</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.399950474587801</v>
+        <v>1.540519961208252</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.312343277779211</v>
+        <v>1.573868322128952</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.558772568593748</v>
+        <v>1.307046110711277</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.475818512303974</v>
+        <v>1.377466532966869</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.313446828206661</v>
+        <v>1.214573992602603</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.515072273695339</v>
+        <v>1.486535144954275</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.411687687882494</v>
+        <v>1.528924827893873</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.433794586207832</v>
+        <v>1.546614331894893</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.545330181424458</v>
+        <v>1.529245755304687</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.427493341426505</v>
+        <v>1.459187154823716</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.407552821944658</v>
+        <v>1.547265300218162</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.53373157126592</v>
+        <v>1.598086418992815</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="F236">
-        <v>1.593710635675519</v>
+        <v>1.487092142667132</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.412856745762041</v>
+        <v>1.405493088643128</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.312587747959337</v>
+        <v>1.598979391420382</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.57276523407165</v>
+        <v>1.574104888503454</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.307336786078857</v>
+        <v>1.767497193953179</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.504807036805619</v>
+        <v>1.344670566578948</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.531886011382317</v>
+        <v>1.735416789344548</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.572979080114614</v>
+        <v>1.376409288517354</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.662623341360171</v>
+        <v>1.331799886755856</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.63631719605568</v>
+        <v>1.403357951469728</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.515626954310584</v>
+        <v>1.600192370867676</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.56541416100878</v>
+        <v>1.568027586062023</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.799815565847111</v>
+        <v>1.595630881285024</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.431770083370097</v>
+        <v>1.687357199637</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.54620965127143</v>
+        <v>1.583888210073075</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.601392011821921</v>
+        <v>1.340113363375631</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.182555175802426</v>
+        <v>1.23360064986388</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.32545070552091</v>
+        <v>1.410816704731622</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
-        <v>1.565069606843041</v>
+        <v>1.860748449551329</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.504977793749652</v>
+        <v>1.632732493240566</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.440868848713103</v>
+        <v>1.683811861852657</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.506113740483293</v>
+        <v>1.42555732591204</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/30_localizer.xlsx
+++ b/sequences/30_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.221428093992512</v>
+        <v>1.849238441480116</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.583264609040271</v>
+        <v>1.572647266191447</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.501884729634469</v>
+        <v>1.41765857228395</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.547886386248627</v>
+        <v>1.4212630934355</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.294567299210174</v>
+        <v>1.466213514240907</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.135285512545022</v>
+        <v>1.324783151624267</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1.554534105431233</v>
+        <v>1.319188515599343</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.412267070799511</v>
+        <v>1.501229829281441</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.240781341156284</v>
+        <v>1.413864836384951</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.598547635253871</v>
+        <v>1.625532042504054</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.440255275091859</v>
+        <v>1.726139571856643</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.316672902288523</v>
+        <v>1.566783503264056</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.421889848494241</v>
+        <v>1.445561637860877</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.488348829484941</v>
+        <v>1.381085777746779</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.285883908424131</v>
+        <v>1.418646298959469</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.422305428005385</v>
+        <v>1.598868357656547</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.519932273884647</v>
+        <v>1.659828693899265</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.315381426203275</v>
+        <v>1.191795902658293</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.458323380825874</v>
+        <v>1.231861004818418</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.502397998710872</v>
+        <v>1.416659649270252</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.45281500595722</v>
+        <v>1.561114858590356</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.357057982680561</v>
+        <v>1.588246236645875</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.022235826375421</v>
+        <v>1.231209250873704</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>1.451560585616442</v>
+        <v>1.457821538394803</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.309132546264378</v>
+        <v>1.55372588843849</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.31320794139196</v>
+        <v>1.478658582457685</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1.407714357666678</v>
+        <v>1.566300101679204</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.324121202285844</v>
+        <v>1.631715260907221</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.614092715276902</v>
+        <v>1.477098881039719</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.790937636392893</v>
+        <v>1.628027734413806</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.907106492542442</v>
+        <v>1.236736731667042</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.296030223616129</v>
+        <v>1.26996402093358</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.393155556499167</v>
+        <v>1.616827119762722</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.573726208118146</v>
+        <v>1.525078002867319</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.585672964490872</v>
+        <v>1.267089155463952</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.374356003674149</v>
+        <v>1.3959110363908</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.429789262061332</v>
+        <v>1.204424329861218</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.540781887772012</v>
+        <v>1.63218280437702</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.477070746494261</v>
+        <v>1.775902812210219</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.547315347029798</v>
+        <v>1.375392732189761</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.206214014070065</v>
+        <v>1.671352836534946</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.495270979404043</v>
+        <v>1.634408569821303</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.592279506918697</v>
+        <v>1.29574345471916</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.187309901198434</v>
+        <v>1.45509828493001</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.629128086446112</v>
+        <v>1.523702098920642</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.584334211885597</v>
+        <v>1.441052377815042</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.266957145952903</v>
+        <v>1.353168351822116</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.455430839701343</v>
+        <v>1.22601032354884</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.216044707119285</v>
+        <v>1.437962227169367</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.588404195878308</v>
+        <v>1.562063862766696</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.566981400029958</v>
+        <v>1.526032388858722</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.506547711962778</v>
+        <v>1.363482052610265</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.554063039935452</v>
+        <v>1.378489505463624</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.40950717907351</v>
+        <v>1.334867549472215</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.749191900815525</v>
+        <v>1.274933257700231</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.719294467694729</v>
+        <v>1.475456305954089</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.653665142075463</v>
+        <v>1.705694987896479</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1.24018721941281</v>
+        <v>1.595196297364664</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.65327800413342</v>
+        <v>1.524544124947257</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.64550398568496</v>
+        <v>1.746328169067216</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.403291532122406</v>
+        <v>1.553030798164871</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.508897173223764</v>
+        <v>1.481357694717652</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.684472101591463</v>
+        <v>1.341334753484455</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.440343756728001</v>
+        <v>1.392639343977337</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.272531198683036</v>
+        <v>1.702697705884188</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.495481082285235</v>
+        <v>1.48031571578815</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.357501844537684</v>
+        <v>1.456774657559698</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.383470895109244</v>
+        <v>1.497428994553254</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.416684779036245</v>
+        <v>1.78199866917475</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.779147732756664</v>
+        <v>1.341862296266176</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.476734036208208</v>
+        <v>1.667196720116992</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.445678367129974</v>
+        <v>1.279768653809939</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.274889665109</v>
+        <v>1.690557027556985</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.475905036196348</v>
+        <v>1.873015767630426</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1.579007674060685</v>
+        <v>1.478599536437422</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.456353308979374</v>
+        <v>1.535070557267891</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.656743876865287</v>
+        <v>1.486357789475301</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.337996663483685</v>
+        <v>1.552134719558405</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.613195032662216</v>
+        <v>1.543203244745318</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.574624479792376</v>
+        <v>1.652953475419279</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.749264426425149</v>
+        <v>1.339764099732486</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.295666246542137</v>
+        <v>1.687811301869009</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.285723466485671</v>
+        <v>1.804691990424412</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.530275080594437</v>
+        <v>1.302466039887054</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.617438164529473</v>
+        <v>1.44848971668313</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.47217294198899</v>
+        <v>1.542367162393621</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.635124701595939</v>
+        <v>1.678395453699352</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.549399046700457</v>
+        <v>1.423217076337133</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.249523774622778</v>
+        <v>1.52974854834428</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.879279548841793</v>
+        <v>1.474677177607113</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.260833874906792</v>
+        <v>1.588252003165917</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.323389811071042</v>
+        <v>1.672132089411967</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.63600711152288</v>
+        <v>1.572144320113492</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.598620904791341</v>
+        <v>1.643003103915495</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.540404944446931</v>
+        <v>1.411514429913036</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>1.719197182070872</v>
+        <v>1.66983829822243</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.967429029742927</v>
+        <v>1.362101359949376</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.457058767129914</v>
+        <v>1.430381862222227</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.274847363656753</v>
+        <v>1.611433474041553</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.575852656234751</v>
+        <v>1.349373301517393</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.429280784658831</v>
+        <v>1.599170092237701</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.683328603947326</v>
+        <v>1.812064199187473</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>1.532960410631042</v>
+        <v>1.477321013971038</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.378698458479937</v>
+        <v>1.373214967767562</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.309467375804885</v>
+        <v>1.843587966567094</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.464956716924559</v>
+        <v>1.434476584924048</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.192434374983476</v>
+        <v>1.402663740273669</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.199170612189024</v>
+        <v>1.218193565367834</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.410310246217579</v>
+        <v>1.447725349338219</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.513924283650099</v>
+        <v>1.509199787158916</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.759372925114616</v>
+        <v>1.486661287018897</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.526053391287464</v>
+        <v>1.708194283887072</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.428784612883335</v>
+        <v>1.21768821170094</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.524776175561663</v>
+        <v>1.290084392211778</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.55966847560009</v>
+        <v>1.688267135616988</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.749673403608283</v>
+        <v>1.600574242499996</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.45997204557205</v>
+        <v>1.526060833103776</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.5300044652339</v>
+        <v>1.551910085190343</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.345538438338724</v>
+        <v>1.5393049450458</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.39673143998131</v>
+        <v>1.511360478704166</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.474381440651863</v>
+        <v>1.417611830902962</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.505481669010378</v>
+        <v>1.603917455721702</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.467441057997008</v>
+        <v>1.435291256895194</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.761511776371305</v>
+        <v>1.455890367340413</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.731554732057512</v>
+        <v>1.328929505728009</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>1.5897437401708</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.544611287447196</v>
+        <v>1.507818552804758</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.267212636844894</v>
+        <v>1.537530293559203</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.540062888849387</v>
+        <v>1.429294722466415</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.490625358022216</v>
+        <v>1.539888561918518</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>1.276304676754334</v>
+        <v>1.368862159850791</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.365211840646478</v>
+        <v>1.539061022626522</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.49672495749953</v>
+        <v>1.473403812196178</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.588068196190861</v>
+        <v>1.358158649676013</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.829641021654881</v>
+        <v>1.772653988761677</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.370877426567679</v>
+        <v>1.53880032894399</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.582056408436474</v>
+        <v>1.50700625613806</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.456548728656315</v>
+        <v>1.133434575506476</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.560472350171768</v>
+        <v>1.551767484748775</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.709121155751066</v>
+        <v>1.615317506658268</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.281545172831253</v>
+        <v>1.404313964360126</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.704518056869932</v>
+        <v>1.342463766552655</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1.779706168874642</v>
+        <v>1.362574240061543</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1.371456976993255</v>
+        <v>1.352649217915024</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.58414936049407</v>
+        <v>1.678937224318641</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.304101602254853</v>
+        <v>1.147124616023751</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.948375970040162</v>
+        <v>1.551608039691716</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.207201514544472</v>
+        <v>1.623529269182214</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.432361127326866</v>
+        <v>1.631400724746648</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.091788846036793</v>
+        <v>1.59932395918637</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.317818082030083</v>
+        <v>1.499160084695855</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.297333797696131</v>
+        <v>1.410915497596758</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.474004354051091</v>
+        <v>1.418778645435841</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.734606644112828</v>
+        <v>1.469880896725076</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.735576147967671</v>
+        <v>1.389547720243644</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.552598065103885</v>
+        <v>1.419838919889159</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.179651490913088</v>
+        <v>1.578585475315584</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.565421714399967</v>
+        <v>1.622657138107524</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.459560470774839</v>
+        <v>1.523057812622623</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.334079209804593</v>
+        <v>1.582441285410737</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.383076934913368</v>
+        <v>1.726590498750308</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.440355848541059</v>
+        <v>1.299063522299507</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.36457794564647</v>
+        <v>1.478670644595573</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.476371028148322</v>
+        <v>1.410111081830649</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.598028718825451</v>
+        <v>1.299007346506095</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.433955862707415</v>
+        <v>1.210357481982837</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.487090756964616</v>
+        <v>1.209383084698214</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.563589861801041</v>
+        <v>1.576415930563262</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.245790401037572</v>
+        <v>1.461912978248809</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.57317971921227</v>
+        <v>1.475482062316613</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.686301155439797</v>
+        <v>1.415361568069161</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.551007562648122</v>
+        <v>1.351380193079905</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.575153801200508</v>
+        <v>1.714818746181334</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.342743311805285</v>
+        <v>1.35855258436269</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.438185195325819</v>
+        <v>1.198084520795611</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.493557550946226</v>
+        <v>1.751511781002705</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.490012195408273</v>
+        <v>1.469663538286878</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.520603859234078</v>
+        <v>1.318586467654674</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.315876902658891</v>
+        <v>1.4537058207333</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.342678547233384</v>
+        <v>1.609072453419162</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.532976071344196</v>
+        <v>1.645338685759355</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.568126874164914</v>
+        <v>1.520111038047254</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.476547469063118</v>
+        <v>1.52692306514349</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.500916138437042</v>
+        <v>1.371971815770174</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.540988013750693</v>
+        <v>1.414177994067896</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.541142360490624</v>
+        <v>1.372367786825655</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.267580911026287</v>
+        <v>1.481630892065063</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.469119560801984</v>
+        <v>1.701150781009365</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.35906826091459</v>
+        <v>1.693214704243328</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.384439289025973</v>
+        <v>1.30148162455071</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.462224369899843</v>
+        <v>1.434719538552146</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>1.647695134142203</v>
+        <v>1.45614508075356</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.499248520873254</v>
+        <v>1.734179980831667</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.444324560881689</v>
+        <v>1.315205780596485</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.17308851680537</v>
+        <v>1.350936251166801</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.516425602204461</v>
+        <v>1.439119089776131</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.448068839335337</v>
+        <v>1.536062770067422</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
-        <v>1.498731415330808</v>
+        <v>1.432373177389092</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.269234103259697</v>
+        <v>1.403171999241088</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.421690441114697</v>
+        <v>1.376050991548208</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.551154400592543</v>
+        <v>1.392407108061241</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.428073040352201</v>
+        <v>1.498595133250018</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.442678120557424</v>
+        <v>1.465284918398159</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.512124883817493</v>
+        <v>1.414616110106386</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.474662046593751</v>
+        <v>1.280872480528876</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.419361995731024</v>
+        <v>1.783133093185494</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.561525343807442</v>
+        <v>1.698458807703432</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.5379083846547</v>
+        <v>1.50215866465366</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.416932758233108</v>
+        <v>1.961528511819263</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.458291188607369</v>
+        <v>1.511815201582281</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.423563298326767</v>
+        <v>1.609059755520561</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.34335101117207</v>
+        <v>1.426877500650954</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.409837125326429</v>
+        <v>1.528203906027407</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.59495959104106</v>
+        <v>1.385652730700416</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.493854095223159</v>
+        <v>1.823047170268709</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.524061613570876</v>
+        <v>1.45880149569348</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.33946921001543</v>
+        <v>1.623289515229977</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.455016843664297</v>
+        <v>1.564917538979159</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.590551641016289</v>
+        <v>1.713172697946038</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.540849030944994</v>
+        <v>1.7050766531106</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.453644325273034</v>
+        <v>1.521490824606735</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.531223319565829</v>
+        <v>1.500277647622351</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.540519961208252</v>
+        <v>1.267351042279053</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.573868322128952</v>
+        <v>1.391962818391733</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.307046110711277</v>
+        <v>1.519531566541547</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.377466532966869</v>
+        <v>1.464281869922927</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.214573992602603</v>
+        <v>1.69394005457306</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.486535144954275</v>
+        <v>1.436178658096746</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.528924827893873</v>
+        <v>1.334952569991943</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.546614331894893</v>
+        <v>1.572072905140148</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.529245755304687</v>
+        <v>1.549086923387788</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.459187154823716</v>
+        <v>1.487086174783475</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.547265300218162</v>
+        <v>1.468341553552477</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.598086418992815</v>
+        <v>1.39265967078129</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.487092142667132</v>
+        <v>1.442665202731335</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.405493088643128</v>
+        <v>1.390362719408452</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.598979391420382</v>
+        <v>1.595083277759974</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.574104888503454</v>
+        <v>1.52864600586571</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.767497193953179</v>
+        <v>1.471444571098022</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.344670566578948</v>
+        <v>1.301731010737233</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.735416789344548</v>
+        <v>1.409648607218691</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.376409288517354</v>
+        <v>1.713646933858163</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.331799886755856</v>
+        <v>1.600798317431112</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.403357951469728</v>
+        <v>1.748424724092686</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.600192370867676</v>
+        <v>1.540916098593136</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.568027586062023</v>
+        <v>1.383341414807301</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.595630881285024</v>
+        <v>1.782074765505018</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.687357199637</v>
+        <v>1.612766968223827</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.583888210073075</v>
+        <v>1.715210763695449</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.340113363375631</v>
+        <v>1.476962544757937</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.23360064986388</v>
+        <v>1.510697338948863</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.410816704731622</v>
+        <v>1.248001676216399</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>1</v>
       </c>
       <c r="F254">
-        <v>1.860748449551329</v>
+        <v>1.506337526905013</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.632732493240566</v>
+        <v>1.613930141720201</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
-        <v>1.683811861852657</v>
+        <v>1.336160061904492</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.42555732591204</v>
+        <v>1.735191226458039</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/30_localizer.xlsx
+++ b/sequences/30_localizer.xlsx
@@ -31,301 +31,394 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
   </si>
   <si>
     <t>face/face040.jpg</t>
   </si>
   <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
   </si>
   <si>
     <t>house/house038.jpg</t>
   </si>
   <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
   </si>
   <si>
     <t>house/house046.jpg</t>
   </si>
   <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
   </si>
   <si>
     <t>face/face032.jpg</t>
   </si>
   <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
     <t>dog/dog039.jpg</t>
   </si>
   <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
   </si>
   <si>
     <t>flower/flower052.jpg</t>
   </si>
   <si>
-    <t>flower/flower055.jpg</t>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
   </si>
   <si>
     <t>flower/flower050.jpg</t>
   </si>
   <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
   </si>
   <si>
     <t>flower/flower051.jpg</t>
   </si>
   <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
   </si>
   <si>
     <t>dog/dog048.jpg</t>
   </si>
   <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
+    <t>face/face055.jpg</t>
   </si>
   <si>
     <t>flower/flower062.jpg</t>
@@ -334,481 +427,388 @@
     <t>house/house055.jpg</t>
   </si>
   <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
   </si>
   <si>
     <t>flower/flower073.jpg</t>
   </si>
   <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
     <t>flower/flower076.jpg</t>
   </si>
   <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
+    <t>house/house064.jpg</t>
   </si>
   <si>
     <t>flower/flower067.jpg</t>
   </si>
   <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
   </si>
   <si>
     <t>flower/flower091.jpg</t>
   </si>
   <si>
-    <t>face/face091.jpg</t>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
   </si>
   <si>
     <t>dog/dog083.jpg</t>
   </si>
   <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
     <t>dog/dog090.jpg</t>
   </si>
   <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
     <t>dog/dog085.jpg</t>
   </si>
   <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
     <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.849238441480116</v>
+        <v>1.476546323431659</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.572647266191447</v>
+        <v>1.483336528683959</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.41765857228395</v>
+        <v>1.277290942142545</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.4212630934355</v>
+        <v>1.4930856718298</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.466213514240907</v>
+        <v>1.508470510813947</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.324783151624267</v>
+        <v>1.637554095729233</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.319188515599343</v>
+        <v>1.296369727694593</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.501229829281441</v>
+        <v>1.562361527022461</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.413864836384951</v>
+        <v>1.700086429143968</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1.625532042504054</v>
+        <v>1.494438608091739</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.726139571856643</v>
+        <v>1.464664675509677</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.566783503264056</v>
+        <v>1.654153901658221</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.445561637860877</v>
+        <v>1.32445702330506</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1.381085777746779</v>
+        <v>1.388558747807004</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.418646298959469</v>
+        <v>1.772969941973953</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.598868357656547</v>
+        <v>1.511182093586766</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.659828693899265</v>
+        <v>1.752934833083824</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.191795902658293</v>
+        <v>1.53141913497087</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.231861004818418</v>
+        <v>1.647379068228386</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1.416659649270252</v>
+        <v>1.561217495556766</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.561114858590356</v>
+        <v>1.486506641715441</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.588246236645875</v>
+        <v>1.539182937010828</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.231209250873704</v>
+        <v>1.817427498103321</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.457821538394803</v>
+        <v>1.842694402246342</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.55372588843849</v>
+        <v>1.186742106633073</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.478658582457685</v>
+        <v>1.474848231734469</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.566300101679204</v>
+        <v>1.309324854762086</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.631715260907221</v>
+        <v>1.37713826793018</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.477098881039719</v>
+        <v>1.505556610851941</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.628027734413806</v>
+        <v>1.33420862997499</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.236736731667042</v>
+        <v>1.654694733840551</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.26996402093358</v>
+        <v>1.734919198106738</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.616827119762722</v>
+        <v>1.52759766308804</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.525078002867319</v>
+        <v>1.592201103867467</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.267089155463952</v>
+        <v>1.425052508686116</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1.3959110363908</v>
+        <v>1.309626562633464</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.204424329861218</v>
+        <v>1.680157160747931</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.63218280437702</v>
+        <v>1.468970597835669</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.775902812210219</v>
+        <v>1.523326885538623</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.375392732189761</v>
+        <v>1.324166492742235</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.671352836534946</v>
+        <v>1.643399044569523</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.634408569821303</v>
+        <v>1.480378512227011</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.29574345471916</v>
+        <v>1.570140683236258</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.45509828493001</v>
+        <v>1.442523078140042</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.523702098920642</v>
+        <v>1.384254668652826</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.441052377815042</v>
+        <v>1.690363300320494</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.353168351822116</v>
+        <v>1.354838963426232</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.22601032354884</v>
+        <v>1.551135874292985</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.437962227169367</v>
+        <v>1.469243044926635</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.562063862766696</v>
+        <v>1.791300696475544</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1.526032388858722</v>
+        <v>1.619765678089164</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.363482052610265</v>
+        <v>1.586975991361844</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.378489505463624</v>
+        <v>1.764642187651405</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.334867549472215</v>
+        <v>1.624702956972284</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.274933257700231</v>
+        <v>1.230985230021192</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.475456305954089</v>
+        <v>1.726555249199768</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.705694987896479</v>
+        <v>1.569905248600797</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.595196297364664</v>
+        <v>1.650465843622069</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.524544124947257</v>
+        <v>1.544262466748325</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.746328169067216</v>
+        <v>1.494805062403856</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>1.553030798164871</v>
+        <v>1.508281960544452</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.481357694717652</v>
+        <v>1.326839871917154</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.341334753484455</v>
+        <v>1.473529040053397</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.392639343977337</v>
+        <v>1.22562587550022</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.702697705884188</v>
+        <v>1.476973207019264</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.48031571578815</v>
+        <v>1.58743282977395</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.456774657559698</v>
+        <v>1.484440556925219</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.497428994553254</v>
+        <v>1.554429087251174</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.78199866917475</v>
+        <v>1.527478055610949</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.341862296266176</v>
+        <v>1.384279381875165</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.667196720116992</v>
+        <v>1.520025298701576</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.279768653809939</v>
+        <v>1.56329896021164</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.690557027556985</v>
+        <v>1.393744419968679</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>1.873015767630426</v>
+        <v>1.55515920214451</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.478599536437422</v>
+        <v>1.300316754016601</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.535070557267891</v>
+        <v>1.529965475316057</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.486357789475301</v>
+        <v>1.442154773856358</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.552134719558405</v>
+        <v>1.408189739613403</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.543203244745318</v>
+        <v>1.640666168607332</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.652953475419279</v>
+        <v>1.802905716439972</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.339764099732486</v>
+        <v>1.458652243462918</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.687811301869009</v>
+        <v>1.556262703352474</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.804691990424412</v>
+        <v>1.435089193237297</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.302466039887054</v>
+        <v>1.642195054466637</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.44848971668313</v>
+        <v>1.17796615597992</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.542367162393621</v>
+        <v>1.476158613518897</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.678395453699352</v>
+        <v>1.482977608538594</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.423217076337133</v>
+        <v>1.627186690767369</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.52974854834428</v>
+        <v>1.255509027869524</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.474677177607113</v>
+        <v>1.645522634854819</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.588252003165917</v>
+        <v>1.238766112673916</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.672132089411967</v>
+        <v>1.59808549549171</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.572144320113492</v>
+        <v>1.639570116584196</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.643003103915495</v>
+        <v>1.446494555535236</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.411514429913036</v>
+        <v>1.390770674051614</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.66983829822243</v>
+        <v>1.172741837626126</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.362101359949376</v>
+        <v>1.544427959327637</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.430381862222227</v>
+        <v>1.389043214427601</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.611433474041553</v>
+        <v>1.603029383566364</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.349373301517393</v>
+        <v>1.460686106687048</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.599170092237701</v>
+        <v>1.486650678891433</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.812064199187473</v>
+        <v>1.483768212735244</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1.477321013971038</v>
+        <v>1.486299341643099</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.373214967767562</v>
+        <v>1.560491754098319</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.843587966567094</v>
+        <v>1.582047351424174</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>1.434476584924048</v>
+        <v>1.74538768995642</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.402663740273669</v>
+        <v>1.532265879191244</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.218193565367834</v>
+        <v>1.597433451629075</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.447725349338219</v>
+        <v>1.466970194894989</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.509199787158916</v>
+        <v>1.233233547885196</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.486661287018897</v>
+        <v>1.563142846806122</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.708194283887072</v>
+        <v>1.494891044303255</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.21768821170094</v>
+        <v>1.284525412737353</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.290084392211778</v>
+        <v>1.702479150461677</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.688267135616988</v>
+        <v>1.382524117392976</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.600574242499996</v>
+        <v>1.420744047911547</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.526060833103776</v>
+        <v>1.370633274510884</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.551910085190343</v>
+        <v>1.486816015849235</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.5393049450458</v>
+        <v>1.414010319118128</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.511360478704166</v>
+        <v>1.382482994399865</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.417611830902962</v>
+        <v>1.594200345995423</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.603917455721702</v>
+        <v>1.524379975486977</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.435291256895194</v>
+        <v>1.577504758210047</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.455890367340413</v>
+        <v>1.509606152227817</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.328929505728009</v>
+        <v>1.306159301618384</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.5897437401708</v>
+        <v>1.342330226066363</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.507818552804758</v>
+        <v>1.732594659666419</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.537530293559203</v>
+        <v>1.354318912243865</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.429294722466415</v>
+        <v>1.537659517559615</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.539888561918518</v>
+        <v>1.130325329094298</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.368862159850791</v>
+        <v>1.683113465152768</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.539061022626522</v>
+        <v>1.543752711874089</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.473403812196178</v>
+        <v>1.362446895567174</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.358158649676013</v>
+        <v>1.620736713221113</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.772653988761677</v>
+        <v>1.549079269499557</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.53880032894399</v>
+        <v>1.42429838550472</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.50700625613806</v>
+        <v>1.579402847807161</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.133434575506476</v>
+        <v>1.441760750567431</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.551767484748775</v>
+        <v>1.478368591070532</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.615317506658268</v>
+        <v>1.211622499865713</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.404313964360126</v>
+        <v>1.774223217591822</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.342463766552655</v>
+        <v>1.629192055503673</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.362574240061543</v>
+        <v>1.906215280113503</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.352649217915024</v>
+        <v>1.709629027142469</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="F146">
-        <v>1.678937224318641</v>
+        <v>1.38698356962976</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.147124616023751</v>
+        <v>1.635639636261873</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.551608039691716</v>
+        <v>1.367965632654675</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.623529269182214</v>
+        <v>1.57353965018221</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.631400724746648</v>
+        <v>1.305127153102248</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1.59932395918637</v>
+        <v>1.737046520942811</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.499160084695855</v>
+        <v>1.505952708261779</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.410915497596758</v>
+        <v>1.372319056294624</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.418778645435841</v>
+        <v>1.460439942015642</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.469880896725076</v>
+        <v>1.404878756145416</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.389547720243644</v>
+        <v>1.614369214488207</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.419838919889159</v>
+        <v>1.435987918386489</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.578585475315584</v>
+        <v>1.553836441759736</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.622657138107524</v>
+        <v>1.595933971976676</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.523057812622623</v>
+        <v>1.264250238492945</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.582441285410737</v>
+        <v>1.478341781370105</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.726590498750308</v>
+        <v>1.617071611697094</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.299063522299507</v>
+        <v>1.516999804276214</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.478670644595573</v>
+        <v>1.511972498217433</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.410111081830649</v>
+        <v>1.262022600862351</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>1.299007346506095</v>
+        <v>1.107385225310142</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.210357481982837</v>
+        <v>1.827090306843856</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.209383084698214</v>
+        <v>1.573484766749508</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.576415930563262</v>
+        <v>1.27291979781439</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.461912978248809</v>
+        <v>1.611304218641826</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.475482062316613</v>
+        <v>1.75743875700999</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.415361568069161</v>
+        <v>1.531988918602057</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.351380193079905</v>
+        <v>1.483422423769791</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.714818746181334</v>
+        <v>1.597795933115225</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.35855258436269</v>
+        <v>1.470611464483538</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.198084520795611</v>
+        <v>1.632874310942498</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.751511781002705</v>
+        <v>1.336053795968785</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.469663538286878</v>
+        <v>1.41601985271467</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.318586467654674</v>
+        <v>1.478044699833135</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.4537058207333</v>
+        <v>1.264493745005278</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.609072453419162</v>
+        <v>1.586404988043016</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.645338685759355</v>
+        <v>1.069418715468588</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.520111038047254</v>
+        <v>1.782304260173428</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.52692306514349</v>
+        <v>1.545071978457068</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.371971815770174</v>
+        <v>1.493052109686061</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.414177994067896</v>
+        <v>1.397053587700726</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.372367786825655</v>
+        <v>1.643666331908101</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.481630892065063</v>
+        <v>1.561227732572789</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.701150781009365</v>
+        <v>1.503697687649447</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.693214704243328</v>
+        <v>1.595057270281517</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.30148162455071</v>
+        <v>1.46754783588269</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.434719538552146</v>
+        <v>1.254261928764037</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.45614508075356</v>
+        <v>1.491653808685557</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.734179980831667</v>
+        <v>1.596808416246823</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.315205780596485</v>
+        <v>1.351603219566476</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.350936251166801</v>
+        <v>1.378891021622549</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.439119089776131</v>
+        <v>1.706303140395505</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.536062770067422</v>
+        <v>1.302783128338403</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>1.432373177389092</v>
+        <v>1.46932193472247</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.403171999241088</v>
+        <v>1.305064960990634</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.376050991548208</v>
+        <v>1.603385485059622</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.392407108061241</v>
+        <v>1.352359854318731</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.498595133250018</v>
+        <v>1.36095111240268</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.465284918398159</v>
+        <v>1.808229435815901</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.414616110106386</v>
+        <v>1.318937004967031</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.280872480528876</v>
+        <v>1.555439754711955</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.783133093185494</v>
+        <v>1.520602239346483</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.698458807703432</v>
+        <v>1.238465415606425</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.50215866465366</v>
+        <v>1.431254096819073</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.961528511819263</v>
+        <v>1.61944530230604</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.511815201582281</v>
+        <v>1.492750842429672</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.609059755520561</v>
+        <v>1.682498902340011</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.426877500650954</v>
+        <v>1.558023051964164</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.528203906027407</v>
+        <v>1.266660128589134</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.385652730700416</v>
+        <v>1.447526507595133</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.823047170268709</v>
+        <v>1.54766881944527</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.45880149569348</v>
+        <v>1.506300018300619</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.623289515229977</v>
+        <v>1.273687572159955</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.564917538979159</v>
+        <v>1.473167379670851</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.713172697946038</v>
+        <v>1.754271920227405</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.7050766531106</v>
+        <v>1.547862406313888</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.521490824606735</v>
+        <v>1.676573892683715</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.500277647622351</v>
+        <v>1.627381070433831</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.267351042279053</v>
+        <v>1.19387869107241</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.391962818391733</v>
+        <v>1.54365948289751</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.519531566541547</v>
+        <v>1.317326914791053</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="F227">
-        <v>1.464281869922927</v>
+        <v>1.410466325013724</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.69394005457306</v>
+        <v>1.478330873026571</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.436178658096746</v>
+        <v>1.734169212851685</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.334952569991943</v>
+        <v>1.610982620066147</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.572072905140148</v>
+        <v>1.519948239403958</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.549086923387788</v>
+        <v>1.501450085658664</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.487086174783475</v>
+        <v>1.415216662139239</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.468341553552477</v>
+        <v>1.752912203330015</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.39265967078129</v>
+        <v>1.537141613202889</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.442665202731335</v>
+        <v>1.36993778492573</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.390362719408452</v>
+        <v>1.275123316417449</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.595083277759974</v>
+        <v>1.447912565292154</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.52864600586571</v>
+        <v>1.6480775948598</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.471444571098022</v>
+        <v>1.484271157044577</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.301731010737233</v>
+        <v>1.314610432853385</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.409648607218691</v>
+        <v>1.463701712122057</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.713646933858163</v>
+        <v>1.660704391434133</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.600798317431112</v>
+        <v>1.337533723867634</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.748424724092686</v>
+        <v>1.310668693996549</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.540916098593136</v>
+        <v>1.483667887118293</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.383341414807301</v>
+        <v>1.548593441435142</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.782074765505018</v>
+        <v>1.77615716601684</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.612766968223827</v>
+        <v>1.541600900168261</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.715210763695449</v>
+        <v>1.357025100227546</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.476962544757937</v>
+        <v>1.267054936987378</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.510697338948863</v>
+        <v>1.636984179614945</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.248001676216399</v>
+        <v>1.540550820044882</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>1.506337526905013</v>
+        <v>1.614994437244388</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.613930141720201</v>
+        <v>1.512090015932562</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1.336160061904492</v>
+        <v>1.462978325377761</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.735191226458039</v>
+        <v>1.387036966020891</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/30_localizer.xlsx
+++ b/sequences/30_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
     <t>face</t>
   </si>
   <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
     <t>dog/dog045.jpg</t>
   </si>
   <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
   </si>
   <si>
     <t>house/house043.jpg</t>
   </si>
   <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
     <t>flower/flower046.jpg</t>
   </si>
   <si>
-    <t>face/face036.jpg</t>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
   </si>
   <si>
     <t>face/face035.jpg</t>
   </si>
   <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
     <t>dog/dog040.jpg</t>
   </si>
   <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
+    <t>flower/flower041.jpg</t>
   </si>
   <si>
     <t>dog/dog046.jpg</t>
   </si>
   <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
+    <t>face/face045.jpg</t>
   </si>
   <si>
     <t>flower/flower039.jpg</t>
   </si>
   <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
+    <t>face/face050.jpg</t>
   </si>
   <si>
     <t>dog/dog062.jpg</t>
   </si>
   <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
     <t>flower/flower058.jpg</t>
   </si>
   <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
   </si>
   <si>
     <t>dog/dog050.jpg</t>
   </si>
   <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
   </si>
   <si>
     <t>flower/flower057.jpg</t>
   </si>
   <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
   </si>
   <si>
     <t>house/house069.jpg</t>
   </si>
   <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
   </si>
   <si>
     <t>face/face072.jpg</t>
   </si>
   <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
   </si>
   <si>
     <t>face/face069.jpg</t>
   </si>
   <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
     <t>flower/flower069.jpg</t>
   </si>
   <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
   </si>
   <si>
     <t>house/house095.jpg</t>
   </si>
   <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
   </si>
   <si>
     <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.476546323431659</v>
+        <v>1.590442652147187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.483336528683959</v>
+        <v>1.682678942619201</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.277290942142545</v>
+        <v>1.700620118486519</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.4930856718298</v>
+        <v>1.45094025120667</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.508470510813947</v>
+        <v>1.489723846146262</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.637554095729233</v>
+        <v>1.60953237271408</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.296369727694593</v>
+        <v>1.44164831798357</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.562361527022461</v>
+        <v>1.308741795685759</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.700086429143968</v>
+        <v>1.295366127080568</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.494438608091739</v>
+        <v>1.567246569496092</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1.464664675509677</v>
+        <v>1.457244848804792</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.654153901658221</v>
+        <v>1.477592527280298</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.32445702330506</v>
+        <v>1.632143057866398</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.388558747807004</v>
+        <v>1.493016360484192</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.772969941973953</v>
+        <v>1.377941902182809</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.511182093586766</v>
+        <v>1.80859246810479</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.752934833083824</v>
+        <v>1.588990651416927</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.53141913497087</v>
+        <v>1.32132054365527</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.647379068228386</v>
+        <v>1.452592753653368</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.561217495556766</v>
+        <v>1.585357702562309</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.486506641715441</v>
+        <v>1.75102596936141</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.539182937010828</v>
+        <v>1.588266778620169</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.817427498103321</v>
+        <v>1.487348743216013</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.842694402246342</v>
+        <v>1.374633736674079</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.186742106633073</v>
+        <v>1.701787922675275</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.474848231734469</v>
+        <v>1.542995621220955</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.309324854762086</v>
+        <v>1.442915922252656</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.37713826793018</v>
+        <v>1.81239637266349</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.505556610851941</v>
+        <v>1.494829619214123</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.33420862997499</v>
+        <v>1.657494214382319</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.654694733840551</v>
+        <v>1.123119906568731</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.734919198106738</v>
+        <v>1.660347722805146</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.52759766308804</v>
+        <v>1.323946108513996</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.592201103867467</v>
+        <v>1.278500708122273</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.425052508686116</v>
+        <v>1.631212305282785</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.309626562633464</v>
+        <v>1.536125617550339</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.680157160747931</v>
+        <v>1.20953887534165</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.468970597835669</v>
+        <v>1.641865891892346</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.523326885538623</v>
+        <v>1.455879616044034</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.324166492742235</v>
+        <v>1.341200963403373</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.643399044569523</v>
+        <v>1.69132776835242</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.480378512227011</v>
+        <v>1.594442430244434</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.570140683236258</v>
+        <v>1.395981446626954</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.442523078140042</v>
+        <v>1.485215683798822</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.384254668652826</v>
+        <v>1.544882952035913</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.690363300320494</v>
+        <v>1.531842911124494</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1.354838963426232</v>
+        <v>1.457845866900461</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.551135874292985</v>
+        <v>1.419387920021922</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.469243044926635</v>
+        <v>1.700371313027307</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.791300696475544</v>
+        <v>1.582447230517864</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.619765678089164</v>
+        <v>1.52736073831447</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.586975991361844</v>
+        <v>1.416309450762627</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.764642187651405</v>
+        <v>1.345638560516265</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.624702956972284</v>
+        <v>1.402373740043398</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.230985230021192</v>
+        <v>1.55288535723001</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.726555249199768</v>
+        <v>1.480488573468735</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.569905248600797</v>
+        <v>1.657477443147777</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1.650465843622069</v>
+        <v>1.601953233501895</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.544262466748325</v>
+        <v>1.45385548103546</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.494805062403856</v>
+        <v>1.652200733118003</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1.508281960544452</v>
+        <v>1.62910672921993</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.326839871917154</v>
+        <v>1.594397665418595</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.473529040053397</v>
+        <v>1.424769395154746</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.22562587550022</v>
+        <v>1.493945448023374</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.476973207019264</v>
+        <v>1.529414631470034</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.58743282977395</v>
+        <v>1.531654313131761</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.484440556925219</v>
+        <v>1.15400635867218</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.554429087251174</v>
+        <v>1.437141373549825</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.527478055610949</v>
+        <v>1.447566474497375</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.384279381875165</v>
+        <v>1.562963254204447</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.520025298701576</v>
+        <v>1.669080736556111</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.56329896021164</v>
+        <v>1.495436226450918</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.393744419968679</v>
+        <v>1.608344914637684</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.55515920214451</v>
+        <v>1.793052868634003</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.300316754016601</v>
+        <v>1.587871900264241</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.529965475316057</v>
+        <v>1.561855695783013</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.442154773856358</v>
+        <v>1.623404780261878</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.408189739613403</v>
+        <v>1.72579645204905</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.640666168607332</v>
+        <v>1.446162265708788</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.802905716439972</v>
+        <v>1.539541280212689</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.458652243462918</v>
+        <v>1.41873116642944</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.556262703352474</v>
+        <v>1.330634658769424</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.435089193237297</v>
+        <v>1.185925901919295</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.642195054466637</v>
+        <v>1.567161392319832</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.17796615597992</v>
+        <v>1.313137369439131</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.476158613518897</v>
+        <v>1.018179300545073</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.482977608538594</v>
+        <v>1.401176155988197</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.627186690767369</v>
+        <v>1.641463701482811</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.255509027869524</v>
+        <v>1.603391841844046</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.645522634854819</v>
+        <v>1.221826725298968</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.238766112673916</v>
+        <v>1.619310594458943</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.59808549549171</v>
+        <v>1.425014654695472</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.639570116584196</v>
+        <v>1.53265173763393</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.446494555535236</v>
+        <v>1.51302970705503</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.390770674051614</v>
+        <v>1.734199312048128</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.172741837626126</v>
+        <v>1.574141276003477</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>1.544427959327637</v>
+        <v>1.389527350024184</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.389043214427601</v>
+        <v>1.620027744999162</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.603029383566364</v>
+        <v>1.5072033377802</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.460686106687048</v>
+        <v>1.616459126029615</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.486650678891433</v>
+        <v>1.316907887565472</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.483768212735244</v>
+        <v>1.481736755153308</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.486299341643099</v>
+        <v>1.397948069543807</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.560491754098319</v>
+        <v>1.731195261720596</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.582047351424174</v>
+        <v>1.418587528613775</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.74538768995642</v>
+        <v>1.708023420078395</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.532265879191244</v>
+        <v>1.490750067120018</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.597433451629075</v>
+        <v>1.46789409631336</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.466970194894989</v>
+        <v>1.473494403471352</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.233233547885196</v>
+        <v>1.470425921228266</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.563142846806122</v>
+        <v>1.754633689168656</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.494891044303255</v>
+        <v>1.579447369608079</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.284525412737353</v>
+        <v>1.040491009759234</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.702479150461677</v>
+        <v>1.76700846273308</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.382524117392976</v>
+        <v>1.518515962063648</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.420744047911547</v>
+        <v>1.34665361404877</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.370633274510884</v>
+        <v>1.673395302781559</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.486816015849235</v>
+        <v>1.558961666050469</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.414010319118128</v>
+        <v>1.443195078967997</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.382482994399865</v>
+        <v>1.390928786415062</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.594200345995423</v>
+        <v>1.768107015298196</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.524379975486977</v>
+        <v>1.705595024420476</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.577504758210047</v>
+        <v>1.429731224192306</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.509606152227817</v>
+        <v>1.487649818019865</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.306159301618384</v>
+        <v>1.516275404277596</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.342330226066363</v>
+        <v>1.390697663047474</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.732594659666419</v>
+        <v>1.329900713206512</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.354318912243865</v>
+        <v>1.556194356628695</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.537659517559615</v>
+        <v>1.584275722825419</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.130325329094298</v>
+        <v>1.447045483335605</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>1.683113465152768</v>
+        <v>1.660904236530852</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.543752711874089</v>
+        <v>1.512891703592933</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.362446895567174</v>
+        <v>1.510764054217974</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.620736713221113</v>
+        <v>1.419131235687713</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.549079269499557</v>
+        <v>1.650715033580016</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.42429838550472</v>
+        <v>1.536898352167458</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.579402847807161</v>
+        <v>1.571858043269419</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.441760750567431</v>
+        <v>1.677169507214392</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.478368591070532</v>
+        <v>1.537835009461449</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.211622499865713</v>
+        <v>1.673879809686535</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.774223217591822</v>
+        <v>1.443803456970807</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.629192055503673</v>
+        <v>1.6063563569324</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.906215280113503</v>
+        <v>1.475547172958789</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.709629027142469</v>
+        <v>1.624207264538598</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.38698356962976</v>
+        <v>1.310686971992584</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.635639636261873</v>
+        <v>1.337049961708775</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.367965632654675</v>
+        <v>1.732615203315228</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.57353965018221</v>
+        <v>1.63288574185419</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>1.305127153102248</v>
+        <v>1.339270344637194</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>1.737046520942811</v>
+        <v>1.850135330575077</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.505952708261779</v>
+        <v>1.614843926434187</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.372319056294624</v>
+        <v>1.625633567188336</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.460439942015642</v>
+        <v>1.678134493921998</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.404878756145416</v>
+        <v>1.504994274404617</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.614369214488207</v>
+        <v>1.073046510466637</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.435987918386489</v>
+        <v>1.668990985890842</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.553836441759736</v>
+        <v>1.64318776458136</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.595933971976676</v>
+        <v>1.795135893395502</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.264250238492945</v>
+        <v>1.595136128197812</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.478341781370105</v>
+        <v>1.386156225905224</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.617071611697094</v>
+        <v>1.555821133088983</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.516999804276214</v>
+        <v>1.572952870419245</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.511972498217433</v>
+        <v>1.439820838488208</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.262022600862351</v>
+        <v>1.438082068783001</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1.107385225310142</v>
+        <v>1.305946933812212</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.827090306843856</v>
+        <v>1.464438754933795</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.573484766749508</v>
+        <v>1.497185377974534</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.27291979781439</v>
+        <v>1.638430073556972</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.611304218641826</v>
+        <v>1.407283103440833</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.75743875700999</v>
+        <v>1.630102561239575</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.531988918602057</v>
+        <v>1.350201510685012</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.483422423769791</v>
+        <v>1.455449120373531</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.597795933115225</v>
+        <v>1.346544979354028</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.470611464483538</v>
+        <v>1.594746089110585</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.632874310942498</v>
+        <v>1.526249714013058</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.336053795968785</v>
+        <v>1.551238204546628</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.41601985271467</v>
+        <v>1.412263400305279</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.478044699833135</v>
+        <v>1.571880760397892</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.264493745005278</v>
+        <v>1.583458008436723</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.586404988043016</v>
+        <v>1.303191046427452</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.069418715468588</v>
+        <v>1.491774446522705</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.782304260173428</v>
+        <v>1.501362252302217</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.545071978457068</v>
+        <v>1.32830346918088</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>1.493052109686061</v>
+        <v>1.480950643858102</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.397053587700726</v>
+        <v>1.689577268194556</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.643666331908101</v>
+        <v>1.210874400364558</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.561227732572789</v>
+        <v>1.447100735461941</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.503697687649447</v>
+        <v>1.702407169923617</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.595057270281517</v>
+        <v>1.327433981388619</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.46754783588269</v>
+        <v>1.814716647370605</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.254261928764037</v>
+        <v>1.323615596412275</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.491653808685557</v>
+        <v>1.365945475858988</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.596808416246823</v>
+        <v>1.533555933905637</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.351603219566476</v>
+        <v>1.40259214078459</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.378891021622549</v>
+        <v>1.402060915739327</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.706303140395505</v>
+        <v>1.455510978583684</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.302783128338403</v>
+        <v>1.350336530164155</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
-        <v>1.46932193472247</v>
+        <v>1.377011840802005</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.305064960990634</v>
+        <v>1.411533701351698</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.603385485059622</v>
+        <v>1.209232148064377</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.352359854318731</v>
+        <v>1.554788591864285</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.36095111240268</v>
+        <v>1.351152063122337</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.808229435815901</v>
+        <v>1.745307184924674</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.318937004967031</v>
+        <v>1.697556986230204</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.555439754711955</v>
+        <v>1.37015163133933</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.520602239346483</v>
+        <v>1.508994911273531</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.238465415606425</v>
+        <v>1.628338283229739</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.431254096819073</v>
+        <v>1.414030235686387</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.61944530230604</v>
+        <v>1.549033692292164</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.492750842429672</v>
+        <v>1.430942540691313</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.682498902340011</v>
+        <v>1.672426370053892</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.558023051964164</v>
+        <v>1.384688321930065</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.266660128589134</v>
+        <v>1.290379945166399</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.447526507595133</v>
+        <v>1.488219468974101</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.54766881944527</v>
+        <v>1.463115476281858</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.506300018300619</v>
+        <v>1.793833014276148</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.273687572159955</v>
+        <v>1.39941432033696</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.473167379670851</v>
+        <v>1.476326507647179</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.754271920227405</v>
+        <v>1.437928695165455</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.547862406313888</v>
+        <v>1.314689403057145</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.676573892683715</v>
+        <v>1.467142807032215</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.627381070433831</v>
+        <v>1.524066698286586</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.19387869107241</v>
+        <v>1.51289355768246</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.54365948289751</v>
+        <v>1.605251774024004</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.317326914791053</v>
+        <v>1.611668943816756</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.410466325013724</v>
+        <v>1.628770242625492</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.478330873026571</v>
+        <v>1.536739985288023</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.734169212851685</v>
+        <v>1.618119259051566</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.610982620066147</v>
+        <v>1.543465168769859</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.519948239403958</v>
+        <v>1.46090468428494</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.501450085658664</v>
+        <v>1.448677834414389</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.415216662139239</v>
+        <v>1.621872955482113</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.752912203330015</v>
+        <v>1.685602850444109</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.537141613202889</v>
+        <v>1.527797276722127</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.36993778492573</v>
+        <v>1.750585412718724</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.275123316417449</v>
+        <v>1.691264361661736</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.447912565292154</v>
+        <v>1.403536895876693</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.6480775948598</v>
+        <v>1.479975855461735</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.484271157044577</v>
+        <v>1.509806035690394</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.314610432853385</v>
+        <v>1.500239131525661</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.463701712122057</v>
+        <v>1.585475703693581</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.660704391434133</v>
+        <v>1.578976320718397</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.337533723867634</v>
+        <v>1.611564935108879</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.310668693996549</v>
+        <v>1.402256303685794</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.483667887118293</v>
+        <v>1.651130728663998</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.548593441435142</v>
+        <v>1.59420158404429</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.77615716601684</v>
+        <v>1.338343585355853</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.541600900168261</v>
+        <v>1.527486494644337</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.357025100227546</v>
+        <v>1.497440455424992</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.267054936987378</v>
+        <v>1.442254586550773</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.636984179614945</v>
+        <v>1.519717436725713</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.540550820044882</v>
+        <v>1.435003858429089</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.614994437244388</v>
+        <v>1.693654478162202</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.512090015932562</v>
+        <v>1.638089308970578</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.462978325377761</v>
+        <v>1.467176865598423</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.387036966020891</v>
+        <v>1.404248660007324</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/30_localizer.xlsx
+++ b/sequences/30_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
     <t>face</t>
   </si>
   <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
     <t>house/house036.jpg</t>
   </si>
   <si>
-    <t>dog/dog032.jpg</t>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
   </si>
   <si>
     <t>house/house035.jpg</t>
   </si>
   <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
     <t>dog/dog047.jpg</t>
   </si>
   <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
     <t>dog/dog037.jpg</t>
   </si>
   <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
   </si>
   <si>
     <t>face/face050.jpg</t>
   </si>
   <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
     <t>dog/dog062.jpg</t>
   </si>
   <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
     <t>face/face053.jpg</t>
   </si>
   <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
     <t>house/house060.jpg</t>
   </si>
   <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
+    <t>face/face060.jpg</t>
   </si>
   <si>
     <t>flower/flower061.jpg</t>
   </si>
   <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
     <t>flower/flower062.jpg</t>
   </si>
   <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
   </si>
   <si>
     <t>face/face073.jpg</t>
   </si>
   <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
   </si>
   <si>
     <t>dog/dog072.jpg</t>
   </si>
   <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
     <t>flower/flower077.jpg</t>
   </si>
   <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
   </si>
   <si>
     <t>house/house092.jpg</t>
   </si>
   <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
     <t>dog/dog083.jpg</t>
   </si>
   <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
   </si>
   <si>
     <t>face/face089.jpg</t>
   </si>
   <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
     <t>face/face087.jpg</t>
   </si>
   <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
   </si>
   <si>
     <t>house/house094.jpg</t>
   </si>
   <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
   </si>
   <si>
     <t>flower/flower091.jpg</t>
   </si>
   <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
     <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.590442652147187</v>
+        <v>1.475562243736698</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.682678942619201</v>
+        <v>1.553275765156414</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.700620118486519</v>
+        <v>1.563561845017068</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.45094025120667</v>
+        <v>1.666107248817108</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.489723846146262</v>
+        <v>1.622922692098595</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.60953237271408</v>
+        <v>1.524342551834089</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.44164831798357</v>
+        <v>1.766721690619777</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.308741795685759</v>
+        <v>1.431418373446054</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.295366127080568</v>
+        <v>1.474271289593906</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.567246569496092</v>
+        <v>1.439181723923351</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.457244848804792</v>
+        <v>1.765359726089538</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.477592527280298</v>
+        <v>1.473512058819333</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.632143057866398</v>
+        <v>1.498147638532827</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.493016360484192</v>
+        <v>1.630823996565377</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.377941902182809</v>
+        <v>1.509705330293659</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.80859246810479</v>
+        <v>1.363947964809151</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.588990651416927</v>
+        <v>1.593357414576286</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.32132054365527</v>
+        <v>1.721920652137432</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.452592753653368</v>
+        <v>1.583436748844969</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.585357702562309</v>
+        <v>1.294326848429838</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.75102596936141</v>
+        <v>1.522940753464304</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.588266778620169</v>
+        <v>1.579259596321613</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.487348743216013</v>
+        <v>1.362131526518521</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.374633736674079</v>
+        <v>1.505807334918758</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.701787922675275</v>
+        <v>1.68715005419231</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.542995621220955</v>
+        <v>1.825565070906137</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.442915922252656</v>
+        <v>1.458229019132677</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.81239637266349</v>
+        <v>1.580981302202632</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.494829619214123</v>
+        <v>1.332898980559251</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.657494214382319</v>
+        <v>1.584088147424839</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.123119906568731</v>
+        <v>1.404126613656652</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.660347722805146</v>
+        <v>1.435047671386965</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.323946108513996</v>
+        <v>1.466835447978107</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.278500708122273</v>
+        <v>1.470795581064273</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.631212305282785</v>
+        <v>1.477170992099023</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.536125617550339</v>
+        <v>1.436546960202171</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.20953887534165</v>
+        <v>1.533886054188436</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.641865891892346</v>
+        <v>1.323154597137734</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.455879616044034</v>
+        <v>1.276616000507598</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.341200963403373</v>
+        <v>1.665810520349075</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.69132776835242</v>
+        <v>1.382207015354643</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.594442430244434</v>
+        <v>1.482430622536479</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.395981446626954</v>
+        <v>1.644939896911339</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.485215683798822</v>
+        <v>1.414817427192548</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.544882952035913</v>
+        <v>1.412029305086794</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.531842911124494</v>
+        <v>1.542079917530974</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.457845866900461</v>
+        <v>1.804651609788792</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.419387920021922</v>
+        <v>1.58653766235416</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.700371313027307</v>
+        <v>1.223582032158108</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.582447230517864</v>
+        <v>1.359071992537046</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.52736073831447</v>
+        <v>1.482663569802803</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.416309450762627</v>
+        <v>1.444494428836898</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.345638560516265</v>
+        <v>1.240865698626933</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.402373740043398</v>
+        <v>1.180676401765031</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.55288535723001</v>
+        <v>1.513300576946577</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.480488573468735</v>
+        <v>1.635682824330674</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.657477443147777</v>
+        <v>1.547344433407366</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>1.601953233501895</v>
+        <v>1.571106537038822</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.45385548103546</v>
+        <v>1.527791605413327</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.652200733118003</v>
+        <v>1.700946315951625</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.62910672921993</v>
+        <v>1.832126062053662</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.594397665418595</v>
+        <v>1.28191239535778</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>1.424769395154746</v>
+        <v>1.405530629506017</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.493945448023374</v>
+        <v>1.490942147895511</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.529414631470034</v>
+        <v>1.550751819261202</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.531654313131761</v>
+        <v>1.283668009767343</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.15400635867218</v>
+        <v>1.561430755645946</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.437141373549825</v>
+        <v>1.750851837491368</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.447566474497375</v>
+        <v>1.298860945328062</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.562963254204447</v>
+        <v>1.453827342028642</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.669080736556111</v>
+        <v>1.418400387298274</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.495436226450918</v>
+        <v>1.734386517398129</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.608344914637684</v>
+        <v>1.444258110168001</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.793052868634003</v>
+        <v>1.674405960762187</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.587871900264241</v>
+        <v>1.569287210240396</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.561855695783013</v>
+        <v>1.692182049660675</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.623404780261878</v>
+        <v>1.441607330754323</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.72579645204905</v>
+        <v>1.480404705947409</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.446162265708788</v>
+        <v>1.712497191477142</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.539541280212689</v>
+        <v>1.419734000907461</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.41873116642944</v>
+        <v>1.564834664968711</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.330634658769424</v>
+        <v>1.575443606900754</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.185925901919295</v>
+        <v>1.353053002488146</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.567161392319832</v>
+        <v>1.529474677683212</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.313137369439131</v>
+        <v>1.269654860273567</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.018179300545073</v>
+        <v>1.529772251058966</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.401176155988197</v>
+        <v>1.626700946424912</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.641463701482811</v>
+        <v>1.624653761896985</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.603391841844046</v>
+        <v>1.676570093807466</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.221826725298968</v>
+        <v>1.777463339740429</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.619310594458943</v>
+        <v>1.503811824486063</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.425014654695472</v>
+        <v>1.708591487433161</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.53265173763393</v>
+        <v>1.567650942034337</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.51302970705503</v>
+        <v>1.384315957841995</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.734199312048128</v>
+        <v>1.419372058329245</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.574141276003477</v>
+        <v>1.435166376217798</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.389527350024184</v>
+        <v>1.675008171568448</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>1.620027744999162</v>
+        <v>1.259171978145658</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.5072033377802</v>
+        <v>1.231680059515919</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.616459126029615</v>
+        <v>1.734374802135975</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.316907887565472</v>
+        <v>1.658991884591965</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.481736755153308</v>
+        <v>1.177516368515188</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.397948069543807</v>
+        <v>1.687876858156434</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.731195261720596</v>
+        <v>1.556799054700891</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.418587528613775</v>
+        <v>1.51921825937477</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.708023420078395</v>
+        <v>1.474313945583809</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.490750067120018</v>
+        <v>1.429468222451736</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.46789409631336</v>
+        <v>1.3782688595866</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.473494403471352</v>
+        <v>1.511107221740186</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.470425921228266</v>
+        <v>1.749781093035959</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.754633689168656</v>
+        <v>1.564455607176779</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.579447369608079</v>
+        <v>1.395088894883614</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.040491009759234</v>
+        <v>1.454430078765277</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.76700846273308</v>
+        <v>1.43064636003284</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.518515962063648</v>
+        <v>1.31607437370637</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>1.34665361404877</v>
+        <v>1.627098732931389</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.673395302781559</v>
+        <v>1.473266130345198</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.558961666050469</v>
+        <v>1.366321576054713</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.443195078967997</v>
+        <v>1.438320008159364</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.390928786415062</v>
+        <v>1.654518356962148</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.768107015298196</v>
+        <v>1.52134380420142</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.705595024420476</v>
+        <v>1.498022171175194</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.429731224192306</v>
+        <v>1.465367272032255</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.487649818019865</v>
+        <v>1.459086666312769</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.516275404277596</v>
+        <v>1.741543435054934</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.390697663047474</v>
+        <v>1.261667243815412</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.329900713206512</v>
+        <v>1.764651310043816</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.556194356628695</v>
+        <v>1.617652587596637</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.584275722825419</v>
+        <v>1.551665520930735</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.447045483335605</v>
+        <v>1.725417268592776</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.660904236530852</v>
+        <v>1.743791626360885</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.512891703592933</v>
+        <v>1.412737953467723</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.510764054217974</v>
+        <v>1.425290395502639</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.419131235687713</v>
+        <v>1.296755199296047</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.650715033580016</v>
+        <v>1.371395953618652</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.536898352167458</v>
+        <v>1.579877026831768</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.571858043269419</v>
+        <v>1.513044668754604</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.677169507214392</v>
+        <v>1.37412253531076</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.537835009461449</v>
+        <v>1.788896815313153</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.673879809686535</v>
+        <v>1.474173125170761</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.443803456970807</v>
+        <v>1.890219146193065</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.6063563569324</v>
+        <v>1.581455965427287</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.475547172958789</v>
+        <v>1.446775269186188</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.624207264538598</v>
+        <v>1.392752118062605</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.310686971992584</v>
+        <v>1.469947402888054</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.337049961708775</v>
+        <v>1.615702548212414</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.732615203315228</v>
+        <v>1.414726322423525</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.63288574185419</v>
+        <v>1.965498122578456</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>1.339270344637194</v>
+        <v>1.454469660289771</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.850135330575077</v>
+        <v>1.674830684818424</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.614843926434187</v>
+        <v>1.636905398823617</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.625633567188336</v>
+        <v>1.490957060507599</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.678134493921998</v>
+        <v>1.862592569729374</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.504994274404617</v>
+        <v>1.474171612510606</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.073046510466637</v>
+        <v>1.598327328875369</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.668990985890842</v>
+        <v>1.442293120276811</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.64318776458136</v>
+        <v>1.316207917489219</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.795135893395502</v>
+        <v>1.36595620125817</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.595136128197812</v>
+        <v>1.507187278363101</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.386156225905224</v>
+        <v>1.404404720255964</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.555821133088983</v>
+        <v>1.669730142205465</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.572952870419245</v>
+        <v>1.54252860818109</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.439820838488208</v>
+        <v>1.803475723951221</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.438082068783001</v>
+        <v>1.493576073555701</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.305946933812212</v>
+        <v>1.709085387960945</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.464438754933795</v>
+        <v>1.339412654372454</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.497185377974534</v>
+        <v>1.861278961595815</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.638430073556972</v>
+        <v>1.690727350669143</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.407283103440833</v>
+        <v>1.465326689789552</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.630102561239575</v>
+        <v>1.302955798916897</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1.350201510685012</v>
+        <v>1.441540166526606</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.455449120373531</v>
+        <v>1.498586351568689</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.346544979354028</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.594746089110585</v>
+        <v>1.308915445574264</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.526249714013058</v>
+        <v>1.6098522875659</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.551238204546628</v>
+        <v>1.408071157991765</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.412263400305279</v>
+        <v>1.135509982112793</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.571880760397892</v>
+        <v>1.741961709940223</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.583458008436723</v>
+        <v>1.398461585667423</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.303191046427452</v>
+        <v>1.426419667460267</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.491774446522705</v>
+        <v>1.391100650187194</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.501362252302217</v>
+        <v>1.448406165791199</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.32830346918088</v>
+        <v>1.359183906731762</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>1.480950643858102</v>
+        <v>1.630224946711327</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.689577268194556</v>
+        <v>1.569339340507896</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.210874400364558</v>
+        <v>1.578274912763333</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.447100735461941</v>
+        <v>1.583784746052094</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.702407169923617</v>
+        <v>1.500690330105228</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.327433981388619</v>
+        <v>1.591866482214517</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.814716647370605</v>
+        <v>1.574759159561228</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.323615596412275</v>
+        <v>1.541042646187182</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.365945475858988</v>
+        <v>1.372900746250314</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.533555933905637</v>
+        <v>1.434606847997826</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.40259214078459</v>
+        <v>1.693877757486897</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.402060915739327</v>
+        <v>1.64899634313517</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.455510978583684</v>
+        <v>1.64616479735737</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.350336530164155</v>
+        <v>1.50200828407008</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>1.377011840802005</v>
+        <v>1.395964942328941</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.411533701351698</v>
+        <v>1.556023088013506</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.209232148064377</v>
+        <v>1.593409866490066</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.554788591864285</v>
+        <v>1.30971487333691</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>1.351152063122337</v>
+        <v>1.757354304717874</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.745307184924674</v>
+        <v>1.327466071357476</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.697556986230204</v>
+        <v>1.514942204633926</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.37015163133933</v>
+        <v>1.561505734058679</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.508994911273531</v>
+        <v>1.742350513166645</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.628338283229739</v>
+        <v>1.515157232825538</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.414030235686387</v>
+        <v>1.376309929846774</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.549033692292164</v>
+        <v>1.389829516463001</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.430942540691313</v>
+        <v>1.4821553486521</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.672426370053892</v>
+        <v>1.430409385903209</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.384688321930065</v>
+        <v>1.575833115847682</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.290379945166399</v>
+        <v>1.421874499149593</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.488219468974101</v>
+        <v>1.557487954937351</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.463115476281858</v>
+        <v>1.741024618651793</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.793833014276148</v>
+        <v>1.770531123738944</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.39941432033696</v>
+        <v>1.464515552537905</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.476326507647179</v>
+        <v>1.378982252085297</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.437928695165455</v>
+        <v>1.509187295195206</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.314689403057145</v>
+        <v>1.550921233984893</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.467142807032215</v>
+        <v>1.477298509131356</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.524066698286586</v>
+        <v>1.459420888812348</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.51289355768246</v>
+        <v>1.700393490366333</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.605251774024004</v>
+        <v>1.521613544829482</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.611668943816756</v>
+        <v>1.59083230346672</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.628770242625492</v>
+        <v>1.377197541763562</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1.536739985288023</v>
+        <v>1.622353379797151</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.618119259051566</v>
+        <v>1.700310334453256</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.543465168769859</v>
+        <v>1.318504651013871</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.46090468428494</v>
+        <v>1.67851818767724</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.448677834414389</v>
+        <v>1.436887478432549</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.621872955482113</v>
+        <v>1.556406733341136</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.685602850444109</v>
+        <v>1.742197811988788</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.527797276722127</v>
+        <v>1.704590247807871</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.750585412718724</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.691264361661736</v>
+        <v>1.382701119083285</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1.403536895876693</v>
+        <v>1.543529552321461</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>1.479975855461735</v>
+        <v>1.384578256247385</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>1.509806035690394</v>
+        <v>1.244274115716999</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.500239131525661</v>
+        <v>1.255314883448223</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.585475703693581</v>
+        <v>1.467871553241203</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.578976320718397</v>
+        <v>1.521679605955328</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.611564935108879</v>
+        <v>1.546246430354598</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.402256303685794</v>
+        <v>1.411403417521218</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.651130728663998</v>
+        <v>1.302862820794998</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.59420158404429</v>
+        <v>1.390301725941107</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.338343585355853</v>
+        <v>1.402933576212864</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.527486494644337</v>
+        <v>1.456485705590993</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.497440455424992</v>
+        <v>1.560693547891325</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.442254586550773</v>
+        <v>1.682259213917999</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.519717436725713</v>
+        <v>1.528728911346479</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.435003858429089</v>
+        <v>1.389314212322627</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.693654478162202</v>
+        <v>1.310457798147313</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.638089308970578</v>
+        <v>1.506382533840594</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.467176865598423</v>
+        <v>1.547720031854836</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.404248660007324</v>
+        <v>1.650247592702272</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/30_localizer.xlsx
+++ b/sequences/30_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
   </si>
   <si>
     <t>dog/dog046.jpg</t>
   </si>
   <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
     <t>flower/flower046.jpg</t>
   </si>
   <si>
-    <t>house/house039.jpg</t>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
   </si>
   <si>
     <t>dog/dog036.jpg</t>
   </si>
   <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
   </si>
   <si>
     <t>face/face039.jpg</t>
   </si>
   <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
+    <t>dog/dog037.jpg</t>
   </si>
   <si>
     <t>dog/dog044.jpg</t>
   </si>
   <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
   </si>
   <si>
     <t>flower/flower051.jpg</t>
   </si>
   <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
+    <t>flower/flower062.jpg</t>
   </si>
   <si>
     <t>face/face048.jpg</t>
   </si>
   <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
   </si>
   <si>
     <t>flower/flower079.jpg</t>
   </si>
   <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
   </si>
   <si>
     <t>flower/flower081.jpg</t>
   </si>
   <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
     <t>flower/flower070.jpg</t>
   </si>
   <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
   </si>
   <si>
     <t>flower/flower093.jpg</t>
   </si>
   <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
   </si>
   <si>
     <t>flower/flower096.jpg</t>
   </si>
   <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
+    <t>house/house095.jpg</t>
   </si>
   <si>
     <t>flower/flower088.jpg</t>
   </si>
   <si>
     <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.475562243736698</v>
+        <v>1.589676858168982</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.553275765156414</v>
+        <v>1.412714793126067</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.563561845017068</v>
+        <v>1.389521105602746</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.666107248817108</v>
+        <v>1.653758892861446</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.622922692098595</v>
+        <v>1.505546695787734</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.524342551834089</v>
+        <v>1.467570761914431</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.766721690619777</v>
+        <v>1.695889972500811</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.431418373446054</v>
+        <v>1.40697725333473</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.474271289593906</v>
+        <v>1.341915532144009</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.439181723923351</v>
+        <v>1.366434015326798</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.765359726089538</v>
+        <v>1.494827671757854</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.473512058819333</v>
+        <v>1.541661946131769</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.498147638532827</v>
+        <v>1.493079932480482</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.630823996565377</v>
+        <v>1.481089260310359</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.509705330293659</v>
+        <v>1.5643499684811</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1.363947964809151</v>
+        <v>1.823450577335356</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.593357414576286</v>
+        <v>1.61375174794294</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.721920652137432</v>
+        <v>1.489924286201991</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.583436748844969</v>
+        <v>1.550931984588398</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.294326848429838</v>
+        <v>1.278425980648475</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.522940753464304</v>
+        <v>1.347671018303753</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.579259596321613</v>
+        <v>1.337654889268895</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.362131526518521</v>
+        <v>1.498447733704045</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.505807334918758</v>
+        <v>1.349296373804599</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.68715005419231</v>
+        <v>1.496984643389613</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.825565070906137</v>
+        <v>1.516080522188261</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.458229019132677</v>
+        <v>1.555135068092317</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.580981302202632</v>
+        <v>1.375749400772342</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.332898980559251</v>
+        <v>1.200113771978138</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.584088147424839</v>
+        <v>1.383732983054313</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.404126613656652</v>
+        <v>1.5198834355515</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.435047671386965</v>
+        <v>1.469766403386665</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.466835447978107</v>
+        <v>1.402223369658035</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.470795581064273</v>
+        <v>1.273025347140412</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.477170992099023</v>
+        <v>1.627820367803867</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.436546960202171</v>
+        <v>1.617376915405912</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.533886054188436</v>
+        <v>1.611098837106824</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.323154597137734</v>
+        <v>1.576362255271793</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.276616000507598</v>
+        <v>1.69437505129696</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.665810520349075</v>
+        <v>1.802484577230869</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.382207015354643</v>
+        <v>1.66196448970295</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.482430622536479</v>
+        <v>1.346261699982318</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.644939896911339</v>
+        <v>1.606465197269505</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.414817427192548</v>
+        <v>1.593507763956133</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.412029305086794</v>
+        <v>1.417936714543681</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.542079917530974</v>
+        <v>1.282877772472202</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.804651609788792</v>
+        <v>1.467955483616832</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.58653766235416</v>
+        <v>1.487803798116162</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.223582032158108</v>
+        <v>1.480729508009293</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.359071992537046</v>
+        <v>1.476152078051386</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.482663569802803</v>
+        <v>1.627677862263299</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.444494428836898</v>
+        <v>1.534563218363582</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.240865698626933</v>
+        <v>1.615644568777884</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.180676401765031</v>
+        <v>1.576019240922558</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1.513300576946577</v>
+        <v>1.562026777528874</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.635682824330674</v>
+        <v>1.502348433022394</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.547344433407366</v>
+        <v>1.446286339410387</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.571106537038822</v>
+        <v>1.642940702851674</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.527791605413327</v>
+        <v>1.584400010857637</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.700946315951625</v>
+        <v>1.54896783364617</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.832126062053662</v>
+        <v>1.677928372864522</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>1.28191239535778</v>
+        <v>1.250705000593983</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.405530629506017</v>
+        <v>1.553166670474429</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.490942147895511</v>
+        <v>1.210706469605625</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.550751819261202</v>
+        <v>1.640194459532348</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.283668009767343</v>
+        <v>1.223973380983908</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.561430755645946</v>
+        <v>1.41132959930805</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.750851837491368</v>
+        <v>1.486609101217906</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.298860945328062</v>
+        <v>1.62933060650196</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.453827342028642</v>
+        <v>1.288771935752076</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.418400387298274</v>
+        <v>1.451413494668491</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.734386517398129</v>
+        <v>1.512706743901375</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.444258110168001</v>
+        <v>1.638320561316396</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.674405960762187</v>
+        <v>1.341903350887193</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.569287210240396</v>
+        <v>1.740046988963776</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.692182049660675</v>
+        <v>1.259431778510915</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.441607330754323</v>
+        <v>1.373067027624484</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.480404705947409</v>
+        <v>1.41087626971755</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.712497191477142</v>
+        <v>1.740356997793697</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.419734000907461</v>
+        <v>1.406282830103822</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.564834664968711</v>
+        <v>1.593304480928799</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>1.575443606900754</v>
+        <v>1.74824214280506</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.353053002488146</v>
+        <v>1.277146886360587</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.529474677683212</v>
+        <v>1.468068322990077</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.269654860273567</v>
+        <v>1.389908913643847</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.529772251058966</v>
+        <v>1.368772575783819</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.626700946424912</v>
+        <v>1.670971683502091</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.624653761896985</v>
+        <v>1.319969438145822</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.676570093807466</v>
+        <v>1.621272931400938</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.777463339740429</v>
+        <v>1.609719268877744</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.503811824486063</v>
+        <v>1.525646702403254</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.708591487433161</v>
+        <v>1.506084371123074</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.567650942034337</v>
+        <v>1.549809911153296</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.384315957841995</v>
+        <v>1.417727582550213</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.419372058329245</v>
+        <v>1.40605712881918</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1.435166376217798</v>
+        <v>1.584964268772419</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.675008171568448</v>
+        <v>1.460587272821</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.259171978145658</v>
+        <v>1.764594093354006</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.231680059515919</v>
+        <v>1.447488987025936</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.734374802135975</v>
+        <v>1.678552450665126</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.658991884591965</v>
+        <v>1.346212658442294</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.177516368515188</v>
+        <v>1.520947979509169</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.687876858156434</v>
+        <v>1.497814121240683</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.556799054700891</v>
+        <v>1.696539993803231</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.51921825937477</v>
+        <v>1.601308603295403</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.474313945583809</v>
+        <v>1.531680866314356</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.429468222451736</v>
+        <v>1.49945366761959</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.3782688595866</v>
+        <v>1.47300625185688</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.511107221740186</v>
+        <v>1.432863160281005</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.749781093035959</v>
+        <v>1.366810098348666</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.564455607176779</v>
+        <v>1.388181055595211</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.395088894883614</v>
+        <v>1.217498637597856</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.454430078765277</v>
+        <v>1.567644365399705</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.43064636003284</v>
+        <v>1.37677762036044</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.31607437370637</v>
+        <v>1.589055199572177</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>1.627098732931389</v>
+        <v>1.276326983634172</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.473266130345198</v>
+        <v>1.607399278144065</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.366321576054713</v>
+        <v>1.698784326466338</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.438320008159364</v>
+        <v>1.431285915180287</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.654518356962148</v>
+        <v>1.566061722862965</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.52134380420142</v>
+        <v>1.472195209181544</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.498022171175194</v>
+        <v>1.358842901670776</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.465367272032255</v>
+        <v>1.320435352413342</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.459086666312769</v>
+        <v>1.512916116257784</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.741543435054934</v>
+        <v>1.790676280149841</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.261667243815412</v>
+        <v>1.54655777272668</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.764651310043816</v>
+        <v>1.498449422170121</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.617652587596637</v>
+        <v>1.58268548793392</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.551665520930735</v>
+        <v>1.737353393687425</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.725417268592776</v>
+        <v>1.503184408096982</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.743791626360885</v>
+        <v>1.479843764452059</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.412737953467723</v>
+        <v>1.538323353938528</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.425290395502639</v>
+        <v>1.423997055270394</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.296755199296047</v>
+        <v>1.503996799146162</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.371395953618652</v>
+        <v>1.519106156085204</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.579877026831768</v>
+        <v>1.747308582859319</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.513044668754604</v>
+        <v>1.423331310207023</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.37412253531076</v>
+        <v>1.382346051782599</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.788896815313153</v>
+        <v>1.452666068102391</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.474173125170761</v>
+        <v>1.381318948102851</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.890219146193065</v>
+        <v>1.600999712468536</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.581455965427287</v>
+        <v>1.597318025246806</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.446775269186188</v>
+        <v>1.089846687662103</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.392752118062605</v>
+        <v>1.558267456205417</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.469947402888054</v>
+        <v>1.34188999532289</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.615702548212414</v>
+        <v>1.446453797108749</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.414726322423525</v>
+        <v>1.40748667412195</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.965498122578456</v>
+        <v>1.62342807372939</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.454469660289771</v>
+        <v>1.50228614917852</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.674830684818424</v>
+        <v>1.593210649252931</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.636905398823617</v>
+        <v>1.399131109285122</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.490957060507599</v>
+        <v>1.227097067186055</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.862592569729374</v>
+        <v>1.511598862881737</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.474171612510606</v>
+        <v>1.532668654230638</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.598327328875369</v>
+        <v>1.640067608086353</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.442293120276811</v>
+        <v>1.675252027733075</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.316207917489219</v>
+        <v>1.561088457167608</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.36595620125817</v>
+        <v>1.496925658537815</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.507187278363101</v>
+        <v>1.487349634320997</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.404404720255964</v>
+        <v>1.503990337810923</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.669730142205465</v>
+        <v>1.374548904865732</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.54252860818109</v>
+        <v>1.410851106985823</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.803475723951221</v>
+        <v>1.474129303562612</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.493576073555701</v>
+        <v>1.536197604692802</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.709085387960945</v>
+        <v>1.267273557162034</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.339412654372454</v>
+        <v>1.412740279586343</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.861278961595815</v>
+        <v>1.347759578554571</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.690727350669143</v>
+        <v>1.621509565654005</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.465326689789552</v>
+        <v>1.620242458817704</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.302955798916897</v>
+        <v>1.726080328189269</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1.441540166526606</v>
+        <v>1.278825294954438</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.498586351568689</v>
+        <v>1.771630906516097</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>2</v>
+        <v>1.5531279597718</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>1.308915445574264</v>
+        <v>1.367823901463879</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.6098522875659</v>
+        <v>1.456267970809722</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.408071157991765</v>
+        <v>1.279085390057303</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.135509982112793</v>
+        <v>1.256307482035359</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F179">
-        <v>1.741961709940223</v>
+        <v>1.458396256129601</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.398461585667423</v>
+        <v>1.668105025710636</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.426419667460267</v>
+        <v>1.44715836954555</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.391100650187194</v>
+        <v>1.516436709866096</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.448406165791199</v>
+        <v>1.410205133871218</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.359183906731762</v>
+        <v>1.501963934721488</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.630224946711327</v>
+        <v>1.394860373236194</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.569339340507896</v>
+        <v>1.37269293934419</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.578274912763333</v>
+        <v>1.714823587054126</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.583784746052094</v>
+        <v>1.49277648960957</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.500690330105228</v>
+        <v>1.467602601904853</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.591866482214517</v>
+        <v>1.345908382739843</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.574759159561228</v>
+        <v>1.420564642862808</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.541042646187182</v>
+        <v>1.537780319266397</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.372900746250314</v>
+        <v>1.513213370698414</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.434606847997826</v>
+        <v>1.519867433898265</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.693877757486897</v>
+        <v>1.47401871333872</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.64899634313517</v>
+        <v>1.209560191286476</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.64616479735737</v>
+        <v>1.332310787457944</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.50200828407008</v>
+        <v>1.593565080318176</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.395964942328941</v>
+        <v>1.778475283064749</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.556023088013506</v>
+        <v>1.596033694889628</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.593409866490066</v>
+        <v>1.635166352576603</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.30971487333691</v>
+        <v>1.533079986213191</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.757354304717874</v>
+        <v>1.425110474909807</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.327466071357476</v>
+        <v>1.387984647305682</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.514942204633926</v>
+        <v>1.475263521583186</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.561505734058679</v>
+        <v>1.584879667916618</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.742350513166645</v>
+        <v>1.609115125232351</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.515157232825538</v>
+        <v>1.561765088286327</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.376309929846774</v>
+        <v>1.891474389572971</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.389829516463001</v>
+        <v>1.225952494128684</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.4821553486521</v>
+        <v>1.540799667009749</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.430409385903209</v>
+        <v>1.251809292506704</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.575833115847682</v>
+        <v>1.561250518302005</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.421874499149593</v>
+        <v>1.564094673002003</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.557487954937351</v>
+        <v>1.502365007717314</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.741024618651793</v>
+        <v>1.584092640087822</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.770531123738944</v>
+        <v>1.461469394228043</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.464515552537905</v>
+        <v>1.699229173616242</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.378982252085297</v>
+        <v>1.468088666265764</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.509187295195206</v>
+        <v>1.495998278523141</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.550921233984893</v>
+        <v>1.686706411699942</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.477298509131356</v>
+        <v>1.638178996042714</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.459420888812348</v>
+        <v>1.322099086958019</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.700393490366333</v>
+        <v>1.212461764306877</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.521613544829482</v>
+        <v>1.431136091078704</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.59083230346672</v>
+        <v>1.449798661857336</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.377197541763562</v>
+        <v>1.573773333449068</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.622353379797151</v>
+        <v>1.378208874512617</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.700310334453256</v>
+        <v>1.608083213925424</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.318504651013871</v>
+        <v>1.484925612751584</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.67851818767724</v>
+        <v>1.287475817031581</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.436887478432549</v>
+        <v>1.360830604169972</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.556406733341136</v>
+        <v>1.309188019477761</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.742197811988788</v>
+        <v>1.314368869213342</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.704590247807871</v>
+        <v>1.403776198531621</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>1.432146874709192</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.382701119083285</v>
+        <v>1.316330825562618</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.543529552321461</v>
+        <v>1.787863847798458</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>1</v>
       </c>
       <c r="F239">
-        <v>1.384578256247385</v>
+        <v>1.338023719030316</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.244274115716999</v>
+        <v>1.552423388654623</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.255314883448223</v>
+        <v>1.320051582360554</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.467871553241203</v>
+        <v>1.224350352206802</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.521679605955328</v>
+        <v>1.59378952644127</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.546246430354598</v>
+        <v>1.314108687822066</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.411403417521218</v>
+        <v>1.744657712245568</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.302862820794998</v>
+        <v>1.532858300046888</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.390301725941107</v>
+        <v>1.468124490687951</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.402933576212864</v>
+        <v>1.427380847739937</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.456485705590993</v>
+        <v>1.534213071271265</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.560693547891325</v>
+        <v>1.449091319798431</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.682259213917999</v>
+        <v>1.331697512860319</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.528728911346479</v>
+        <v>1.471728324528902</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.389314212322627</v>
+        <v>1.834553352868663</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.310457798147313</v>
+        <v>1.298572415063258</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.506382533840594</v>
+        <v>1.636879477843812</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.547720031854836</v>
+        <v>1.487381261354281</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.650247592702272</v>
+        <v>1.442718784792507</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/30_localizer.xlsx
+++ b/sequences/30_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>flower</t>
+    <t>dog</t>
   </si>
   <si>
     <t>house</t>
   </si>
   <si>
-    <t>dog</t>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
   </si>
   <si>
     <t>face/face047.jpg</t>
   </si>
   <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
     <t>face/face043.jpg</t>
   </si>
   <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
   </si>
   <si>
     <t>face/face062.jpg</t>
   </si>
   <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
+    <t>dog/dog055.jpg</t>
   </si>
   <si>
     <t>face/face051.jpg</t>
   </si>
   <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
     <t>house/house059.jpg</t>
   </si>
   <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
   </si>
   <si>
     <t>flower/flower058.jpg</t>
   </si>
   <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
   </si>
   <si>
     <t>flower/flower064.jpg</t>
   </si>
   <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
   </si>
   <si>
     <t>house/house071.jpg</t>
   </si>
   <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
     <t>face/face066.jpg</t>
   </si>
   <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
     <t>dog/dog077.jpg</t>
   </si>
   <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
     <t>flower/flower071.jpg</t>
   </si>
   <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
   </si>
   <si>
     <t>flower/flower068.jpg</t>
   </si>
   <si>
-    <t>flower/flower077.jpg</t>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
   </si>
   <si>
     <t>flower/flower075.jpg</t>
   </si>
   <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
+    <t>flower/flower081.jpg</t>
   </si>
   <si>
     <t>flower/flower073.jpg</t>
   </si>
   <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
   </si>
   <si>
     <t>house/house080.jpg</t>
   </si>
   <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
     <t>face/face086.jpg</t>
   </si>
   <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
+    <t>house/house089.jpg</t>
   </si>
   <si>
     <t>dog/dog088.jpg</t>
   </si>
   <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
     <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.589676858168982</v>
+        <v>1.528450337888349</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.412714793126067</v>
+        <v>1.413277643767213</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.389521105602746</v>
+        <v>1.721805000435364</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.653758892861446</v>
+        <v>1.508108551132555</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.505546695787734</v>
+        <v>1.711231762242517</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.467570761914431</v>
+        <v>1.514365897472568</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.695889972500811</v>
+        <v>1.449730239784331</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.40697725333473</v>
+        <v>1.358253932512863</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.341915532144009</v>
+        <v>1.58464819549109</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.366434015326798</v>
+        <v>1.541428637699814</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.494827671757854</v>
+        <v>1.298669550911705</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.541661946131769</v>
+        <v>1.669538640299531</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.493079932480482</v>
+        <v>1.68015683157831</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.481089260310359</v>
+        <v>1.411073902768136</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.5643499684811</v>
+        <v>1.541454213370197</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1.823450577335356</v>
+        <v>1.826771241408158</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.61375174794294</v>
+        <v>1.288794861441455</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.489924286201991</v>
+        <v>1.459417599378502</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.550931984588398</v>
+        <v>1.257506213107572</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1.278425980648475</v>
+        <v>1.531517575763455</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.347671018303753</v>
+        <v>1.468080997978951</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.337654889268895</v>
+        <v>1.477611664529617</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.498447733704045</v>
+        <v>1.60966713639218</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.349296373804599</v>
+        <v>1.315761929213962</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.496984643389613</v>
+        <v>1.071598996192763</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.516080522188261</v>
+        <v>1.472413261881928</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.555135068092317</v>
+        <v>1.425781132738859</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.375749400772342</v>
+        <v>1.601320013354452</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.200113771978138</v>
+        <v>1.522614182431885</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.383732983054313</v>
+        <v>1.360711507846761</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.5198834355515</v>
+        <v>1.285053331888774</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.469766403386665</v>
+        <v>1.509924283582058</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.402223369658035</v>
+        <v>1.698907100480903</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.273025347140412</v>
+        <v>1.59953694565549</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.627820367803867</v>
+        <v>1.760131940049632</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.617376915405912</v>
+        <v>1.235435259583476</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.611098837106824</v>
+        <v>1.297732306923148</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.576362255271793</v>
+        <v>1.60507917026861</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.69437505129696</v>
+        <v>1.454859630831657</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.802484577230869</v>
+        <v>1.405653602287705</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.66196448970295</v>
+        <v>1.532570660758783</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.346261699982318</v>
+        <v>1.647301512475079</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.606465197269505</v>
+        <v>1.502638051977645</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.593507763956133</v>
+        <v>1.422673848562678</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.417936714543681</v>
+        <v>1.329581277758171</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.282877772472202</v>
+        <v>1.511742081021773</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.467955483616832</v>
+        <v>1.582662718212721</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.487803798116162</v>
+        <v>1.719930994731689</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.480729508009293</v>
+        <v>1.628995301122559</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.476152078051386</v>
+        <v>1.459206114271349</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.627677862263299</v>
+        <v>1.570808817003244</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.534563218363582</v>
+        <v>1.358034827821141</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.615644568777884</v>
+        <v>1.380165422506658</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.576019240922558</v>
+        <v>1.720593392520908</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.562026777528874</v>
+        <v>1.431993914869452</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.502348433022394</v>
+        <v>1.628405756143202</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.446286339410387</v>
+        <v>1.369991960768865</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.642940702851674</v>
+        <v>1.42485876704127</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.584400010857637</v>
+        <v>1.396473088436171</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.54896783364617</v>
+        <v>1.563165199601831</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.677928372864522</v>
+        <v>1.448286603444208</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.250705000593983</v>
+        <v>1.785163222068262</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.553166670474429</v>
+        <v>1.204116601980017</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.210706469605625</v>
+        <v>1.317765302084698</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.640194459532348</v>
+        <v>1.378347360377993</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.223973380983908</v>
+        <v>1.686220415339411</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.41132959930805</v>
+        <v>1.492150218979872</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.486609101217906</v>
+        <v>1.604901157934517</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1.62933060650196</v>
+        <v>1.511669965955079</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.288771935752076</v>
+        <v>1.447576386060887</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.451413494668491</v>
+        <v>1.652488881213761</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.512706743901375</v>
+        <v>1.470149396151055</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.638320561316396</v>
+        <v>1.378293071936299</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.341903350887193</v>
+        <v>1.464307351459675</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.740046988963776</v>
+        <v>1.599199133830684</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.259431778510915</v>
+        <v>1.478461744568842</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.373067027624484</v>
+        <v>1.607089564857994</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.41087626971755</v>
+        <v>1.59515305092291</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.740356997793697</v>
+        <v>1.473219550580178</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.406282830103822</v>
+        <v>1.369643579329798</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.593304480928799</v>
+        <v>1.578550960436668</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1.74824214280506</v>
+        <v>1.395825493568501</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.277146886360587</v>
+        <v>1.483498243980699</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.468068322990077</v>
+        <v>1.517771846151463</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.389908913643847</v>
+        <v>1.517485278226328</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.368772575783819</v>
+        <v>1.51449284984555</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.670971683502091</v>
+        <v>1.676457953350806</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.319969438145822</v>
+        <v>1.315347834571994</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.621272931400938</v>
+        <v>1.398240466669941</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.609719268877744</v>
+        <v>1.626750396626833</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.525646702403254</v>
+        <v>1.655333679079547</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.506084371123074</v>
+        <v>1.68155482905669</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.549809911153296</v>
+        <v>1.458145292658483</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.417727582550213</v>
+        <v>1.540267512975921</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.40605712881918</v>
+        <v>1.544770982726189</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>1.584964268772419</v>
+        <v>1.155437901932667</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.460587272821</v>
+        <v>1.449866788110896</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.764594093354006</v>
+        <v>1.525444307512543</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.447488987025936</v>
+        <v>1.524077317333876</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.678552450665126</v>
+        <v>1.31355327582853</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.346212658442294</v>
+        <v>1.591827561084687</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.520947979509169</v>
+        <v>1.474751419174953</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>1.497814121240683</v>
+        <v>1.523003684505968</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.696539993803231</v>
+        <v>1.367969344049401</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.601308603295403</v>
+        <v>1.480126624873809</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.531680866314356</v>
+        <v>1.42601344932749</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.49945366761959</v>
+        <v>1.584187303021434</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.47300625185688</v>
+        <v>1.502394211040128</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.432863160281005</v>
+        <v>1.455502123434134</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.366810098348666</v>
+        <v>1.495322738320446</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.388181055595211</v>
+        <v>1.59247259339063</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.217498637597856</v>
+        <v>1.492998813138432</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.567644365399705</v>
+        <v>1.554368949569904</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.37677762036044</v>
+        <v>1.55574941201073</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.589055199572177</v>
+        <v>1.250230439900962</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.276326983634172</v>
+        <v>1.426381019066547</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.607399278144065</v>
+        <v>1.559564374026417</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.698784326466338</v>
+        <v>1.476487615528244</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.431285915180287</v>
+        <v>1.478346526367561</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.566061722862965</v>
+        <v>1.530175004021065</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.472195209181544</v>
+        <v>1.438630145209932</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.358842901670776</v>
+        <v>1.414963826760543</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.320435352413342</v>
+        <v>1.075258831272639</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.512916116257784</v>
+        <v>1.393058559602134</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.790676280149841</v>
+        <v>1.655376066002833</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.54655777272668</v>
+        <v>1.431698876451163</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.498449422170121</v>
+        <v>1.473121424547498</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.58268548793392</v>
+        <v>1.464443096587568</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.737353393687425</v>
+        <v>1.342387159736014</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.503184408096982</v>
+        <v>1.472742641981376</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.479843764452059</v>
+        <v>1.496949077873058</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.538323353938528</v>
+        <v>1.265652701734146</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.423997055270394</v>
+        <v>1.305245502794222</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.503996799146162</v>
+        <v>1.464763478975911</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.519106156085204</v>
+        <v>1.488276188348236</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.747308582859319</v>
+        <v>1.532068482415521</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.423331310207023</v>
+        <v>1.348969730723993</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.382346051782599</v>
+        <v>1.2247784307792</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.452666068102391</v>
+        <v>1.272647725539767</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.381318948102851</v>
+        <v>1.526242468849187</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.600999712468536</v>
+        <v>1.528999855690735</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.597318025246806</v>
+        <v>1.379762698785232</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.089846687662103</v>
+        <v>1.507138760406198</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.558267456205417</v>
+        <v>1.412861385950576</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.34188999532289</v>
+        <v>1.482393749489384</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.446453797108749</v>
+        <v>1.641672831029089</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.40748667412195</v>
+        <v>1.796552004056048</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.62342807372939</v>
+        <v>1.570782700154248</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.50228614917852</v>
+        <v>1.436192664612908</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.593210649252931</v>
+        <v>1.556548873299489</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.399131109285122</v>
+        <v>1.353396302597851</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.227097067186055</v>
+        <v>1.280246043738024</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.511598862881737</v>
+        <v>1.455649155778533</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.532668654230638</v>
+        <v>1.484897563365386</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.640067608086353</v>
+        <v>1.534481744989923</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.675252027733075</v>
+        <v>1.385365914002236</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.561088457167608</v>
+        <v>1.277062320374281</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.496925658537815</v>
+        <v>1.464116474322388</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.487349634320997</v>
+        <v>1.362122640963702</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.503990337810923</v>
+        <v>1.351108848388965</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.374548904865732</v>
+        <v>1.524047141640328</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.410851106985823</v>
+        <v>1.588848684599689</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.474129303562612</v>
+        <v>1.525337313605996</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.536197604692802</v>
+        <v>1.483993611817427</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.267273557162034</v>
+        <v>1.621569640653897</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.412740279586343</v>
+        <v>1.518031717989155</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.347759578554571</v>
+        <v>1.617297177040862</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.621509565654005</v>
+        <v>1.239988157871852</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.620242458817704</v>
+        <v>1.291626603421421</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.726080328189269</v>
+        <v>1.625733802162292</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.278825294954438</v>
+        <v>1.307640189653446</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.771630906516097</v>
+        <v>1.721067128147282</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.5531279597718</v>
+        <v>1.48858032298314</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.367823901463879</v>
+        <v>1.600861210095453</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.456267970809722</v>
+        <v>1.658695855637869</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.279085390057303</v>
+        <v>1.390046034821657</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="F178">
-        <v>1.256307482035359</v>
+        <v>1.756576156426558</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.458396256129601</v>
+        <v>1.600935154575646</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.668105025710636</v>
+        <v>1.677681208799586</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.44715836954555</v>
+        <v>1.885569370433708</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.516436709866096</v>
+        <v>1.462021685961016</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.410205133871218</v>
+        <v>1.488531694457915</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.501963934721488</v>
+        <v>1.271841178475501</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.394860373236194</v>
+        <v>1.480963982273849</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.37269293934419</v>
+        <v>1.449106272536962</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.714823587054126</v>
+        <v>1.797001227710785</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.49277648960957</v>
+        <v>1.435993594064464</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.467602601904853</v>
+        <v>1.468411303842757</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.345908382739843</v>
+        <v>1.457346841117643</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.420564642862808</v>
+        <v>1.435244049808336</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.537780319266397</v>
+        <v>1.442152552161357</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>1.513213370698414</v>
+        <v>1.47900521752101</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.519867433898265</v>
+        <v>1.613371838049004</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.47401871333872</v>
+        <v>1.482288618687073</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.209560191286476</v>
+        <v>1.490502728051155</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.332310787457944</v>
+        <v>1.737946665874307</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.593565080318176</v>
+        <v>1.323277448081656</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.778475283064749</v>
+        <v>1.62301582115651</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.596033694889628</v>
+        <v>1.400291989887969</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.635166352576603</v>
+        <v>1.660162247635619</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.533079986213191</v>
+        <v>1.454188017223571</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.425110474909807</v>
+        <v>1.434747172080445</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.387984647305682</v>
+        <v>1.623657487569316</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.475263521583186</v>
+        <v>1.675570574611814</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.584879667916618</v>
+        <v>1.5448372463973</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.609115125232351</v>
+        <v>1.505884473512643</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.561765088286327</v>
+        <v>1.303240913859236</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.891474389572971</v>
+        <v>1.339973022625129</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.225952494128684</v>
+        <v>1.478182235049089</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.540799667009749</v>
+        <v>1.481923040862667</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.251809292506704</v>
+        <v>1.607194723964723</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.561250518302005</v>
+        <v>1.623390101673787</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.564094673002003</v>
+        <v>1.734858875134591</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.502365007717314</v>
+        <v>1.536212723331114</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.584092640087822</v>
+        <v>1.46361202116179</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.461469394228043</v>
+        <v>1.481257194742048</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.699229173616242</v>
+        <v>1.768844503356465</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.468088666265764</v>
+        <v>1.436704445848309</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.495998278523141</v>
+        <v>1.63805577276551</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.686706411699942</v>
+        <v>1.463308189591899</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1.638178996042714</v>
+        <v>1.514567012388143</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.322099086958019</v>
+        <v>1.334486992451534</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.212461764306877</v>
+        <v>1.480444828507657</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.431136091078704</v>
+        <v>1.626881097183531</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.449798661857336</v>
+        <v>1.584790858643534</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.573773333449068</v>
+        <v>1.215687027931218</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.378208874512617</v>
+        <v>1.386580489570873</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.608083213925424</v>
+        <v>1.531279086397623</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.484925612751584</v>
+        <v>1.354038384937948</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.287475817031581</v>
+        <v>1.360246195543553</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.360830604169972</v>
+        <v>1.734324253278831</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.309188019477761</v>
+        <v>1.535560932174033</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.314368869213342</v>
+        <v>1.488179454278553</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.403776198531621</v>
+        <v>1.460560003238385</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.432146874709192</v>
+        <v>1.777689335041331</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.316330825562618</v>
+        <v>1.433715174136995</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1.787863847798458</v>
+        <v>1.597446606675933</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>1.338023719030316</v>
+        <v>1.390842981995198</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.552423388654623</v>
+        <v>1.423495298343042</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.320051582360554</v>
+        <v>1.278600127421066</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.224350352206802</v>
+        <v>1.591293231127999</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.59378952644127</v>
+        <v>1.480747962003697</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.314108687822066</v>
+        <v>1.35173689500289</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.744657712245568</v>
+        <v>1.664796614031927</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.532858300046888</v>
+        <v>1.4633933038346</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.468124490687951</v>
+        <v>1.810323317656012</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.427380847739937</v>
+        <v>1.63009226899262</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.534213071271265</v>
+        <v>1.570224296767782</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.449091319798431</v>
+        <v>1.72947292573181</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.331697512860319</v>
+        <v>1.564151713402532</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.471728324528902</v>
+        <v>1.597730358212171</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="F253">
-        <v>1.834553352868663</v>
+        <v>1.308018016249757</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.298572415063258</v>
+        <v>1.645121025661966</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.636879477843812</v>
+        <v>1.606406639164226</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
-        <v>1.487381261354281</v>
+        <v>1.637831681309851</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.442718784792507</v>
+        <v>1.483043676550098</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/30_localizer.xlsx
+++ b/sequences/30_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>house</t>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
   </si>
   <si>
     <t>flower/flower044.jpg</t>
   </si>
   <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
     <t>flower/flower034.jpg</t>
   </si>
   <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
     <t>flower/flower035.jpg</t>
   </si>
   <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
+    <t>house/house040.jpg</t>
   </si>
   <si>
     <t>house/house045.jpg</t>
   </si>
   <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
+    <t>dog/dog032.jpg</t>
   </si>
   <si>
     <t>dog/dog047.jpg</t>
   </si>
   <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
     <t>flower/flower038.jpg</t>
   </si>
   <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
     <t>dog/dog034.jpg</t>
   </si>
   <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
   </si>
   <si>
     <t>flower/flower061.jpg</t>
   </si>
   <si>
-    <t>dog/dog057.jpg</t>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
   </si>
   <si>
     <t>flower/flower063.jpg</t>
   </si>
   <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
     <t>face/face049.jpg</t>
   </si>
   <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
     <t>face/face056.jpg</t>
   </si>
   <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
     <t>flower/flower051.jpg</t>
   </si>
   <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
     <t>flower/flower058.jpg</t>
   </si>
   <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
   </si>
   <si>
     <t>face/face075.jpg</t>
   </si>
   <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
     <t>house/house067.jpg</t>
   </si>
   <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
   </si>
   <si>
     <t>house/house071.jpg</t>
   </si>
   <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
     <t>house/house066.jpg</t>
   </si>
   <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
   </si>
   <si>
     <t>dog/dog068.jpg</t>
   </si>
   <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
+    <t>dog/dog065.jpg</t>
   </si>
   <si>
     <t>face/face067.jpg</t>
   </si>
   <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
   </si>
   <si>
     <t>face/face082.jpg</t>
   </si>
   <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
   </si>
   <si>
     <t>dog/dog091.jpg</t>
   </si>
   <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
   </si>
   <si>
     <t>dog/dog086.jpg</t>
   </si>
   <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
     <t>house/house084.jpg</t>
   </si>
   <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
+    <t>flower/flower087.jpg</t>
   </si>
   <si>
     <t>flower/flower094.jpg</t>
   </si>
   <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
     <t>flower/flower091.jpg</t>
   </si>
   <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
     <t>house/house095.jpg</t>
   </si>
   <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
     <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.528450337888349</v>
+        <v>1.645691264399956</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.413277643767213</v>
+        <v>1.179387980542365</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.721805000435364</v>
+        <v>1.614750488799248</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.508108551132555</v>
+        <v>1.36377413091362</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.711231762242517</v>
+        <v>1.570770947315649</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.514365897472568</v>
+        <v>1.273893581851577</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.449730239784331</v>
+        <v>1.486589323845596</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.358253932512863</v>
+        <v>1.465442605810592</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.58464819549109</v>
+        <v>1.500504921934712</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.541428637699814</v>
+        <v>1.632514280007479</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.298669550911705</v>
+        <v>1.589563909951528</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.669538640299531</v>
+        <v>1.653976450008092</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.68015683157831</v>
+        <v>1.470655059760535</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.411073902768136</v>
+        <v>1.590654934819573</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.541454213370197</v>
+        <v>1.266476304474963</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.826771241408158</v>
+        <v>1.566226515752009</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.288794861441455</v>
+        <v>1.561111252168858</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.459417599378502</v>
+        <v>1.260371373641298</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.257506213107572</v>
+        <v>1.754623993866778</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.531517575763455</v>
+        <v>1.662276702400107</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.468080997978951</v>
+        <v>1.622527457577323</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.477611664529617</v>
+        <v>1.338890242297905</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.60966713639218</v>
+        <v>1.503981938012957</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.315761929213962</v>
+        <v>1.49488053352323</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.071598996192763</v>
+        <v>1.578473692437961</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.472413261881928</v>
+        <v>1.292614610339349</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.425781132738859</v>
+        <v>1.555096057076277</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.601320013354452</v>
+        <v>1.600379758733517</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.522614182431885</v>
+        <v>1.554565454983271</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.360711507846761</v>
+        <v>1.667435985702208</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.285053331888774</v>
+        <v>1.319061038611743</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.509924283582058</v>
+        <v>1.526149264795826</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.698907100480903</v>
+        <v>1.216159227698278</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.59953694565549</v>
+        <v>1.649744895757356</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.760131940049632</v>
+        <v>1.426929190705695</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.235435259583476</v>
+        <v>1.694063652116226</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.297732306923148</v>
+        <v>1.650013312255097</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.60507917026861</v>
+        <v>1.39845958014371</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.454859630831657</v>
+        <v>1.490639742976216</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.405653602287705</v>
+        <v>1.7033384351149</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.532570660758783</v>
+        <v>1.685466506524665</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.647301512475079</v>
+        <v>1.52725958285688</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.502638051977645</v>
+        <v>1.515610638529286</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.422673848562678</v>
+        <v>1.47872529527895</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.329581277758171</v>
+        <v>1.14974962723875</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.511742081021773</v>
+        <v>1.499878008795183</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.582662718212721</v>
+        <v>1.320764451710555</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.719930994731689</v>
+        <v>1.334965381747184</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.628995301122559</v>
+        <v>1.578982519378297</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.459206114271349</v>
+        <v>1.437365565378162</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.570808817003244</v>
+        <v>1.572829409064367</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.358034827821141</v>
+        <v>1.481242975252865</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.380165422506658</v>
+        <v>1.423223753361528</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.720593392520908</v>
+        <v>1.566295808584562</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.431993914869452</v>
+        <v>1.506744699729677</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.628405756143202</v>
+        <v>1.382273956664044</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.369991960768865</v>
+        <v>1.680815035100343</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.42485876704127</v>
+        <v>1.532549445452616</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.396473088436171</v>
+        <v>1.152086810849502</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.563165199601831</v>
+        <v>1.492651826814627</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.448286603444208</v>
+        <v>1.622590545116962</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.785163222068262</v>
+        <v>1.62150790764589</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.204116601980017</v>
+        <v>1.368957691849293</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.317765302084698</v>
+        <v>1.610377178954597</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.378347360377993</v>
+        <v>1.54111159947415</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.686220415339411</v>
+        <v>1.269206791119477</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.492150218979872</v>
+        <v>1.673994091583181</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.604901157934517</v>
+        <v>1.755506862987198</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.511669965955079</v>
+        <v>1.597734704487754</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.447576386060887</v>
+        <v>1.498234888465793</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.652488881213761</v>
+        <v>1.502145359504786</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.470149396151055</v>
+        <v>1.563448277243405</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>1.378293071936299</v>
+        <v>1.221030129383717</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.464307351459675</v>
+        <v>1.34842183273382</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.599199133830684</v>
+        <v>1.492981630723374</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.478461744568842</v>
+        <v>1.472187332003772</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.607089564857994</v>
+        <v>1.498437176947829</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.59515305092291</v>
+        <v>1.514339403262478</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.473219550580178</v>
+        <v>1.321476335578844</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.369643579329798</v>
+        <v>1.353077975525391</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.578550960436668</v>
+        <v>1.486367473028558</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.395825493568501</v>
+        <v>1.352844856228754</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.483498243980699</v>
+        <v>1.174521353244542</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.517771846151463</v>
+        <v>1.394753869426562</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.517485278226328</v>
+        <v>1.336675233778889</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1.51449284984555</v>
+        <v>1.484683141564594</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.676457953350806</v>
+        <v>1.600811483194323</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.315347834571994</v>
+        <v>1.689171549397387</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.398240466669941</v>
+        <v>1.525401179323658</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.626750396626833</v>
+        <v>1.515692717045383</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.655333679079547</v>
+        <v>1.579936598667638</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.68155482905669</v>
+        <v>1.424642960567452</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.458145292658483</v>
+        <v>1.39713778228958</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.540267512975921</v>
+        <v>1.440692022101724</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.544770982726189</v>
+        <v>1.472346232992329</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1.155437901932667</v>
+        <v>1.475832629306199</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>1.449866788110896</v>
+        <v>1.49478418464431</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.525444307512543</v>
+        <v>1.312090878293523</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.524077317333876</v>
+        <v>1.479723017205089</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.31355327582853</v>
+        <v>1.625676813123611</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.591827561084687</v>
+        <v>1.212625677266729</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.474751419174953</v>
+        <v>1.386947248851678</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1.523003684505968</v>
+        <v>1.504929112819463</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.367969344049401</v>
+        <v>1.553603812604183</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.480126624873809</v>
+        <v>1.527544617326976</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.42601344932749</v>
+        <v>1.306313702456933</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.584187303021434</v>
+        <v>1.934434690772195</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.502394211040128</v>
+        <v>1.167349271078346</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.455502123434134</v>
+        <v>1.428325735014994</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.495322738320446</v>
+        <v>1.370119637161943</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.59247259339063</v>
+        <v>1.701177409662415</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.492998813138432</v>
+        <v>1.402495878482735</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.554368949569904</v>
+        <v>1.390473165845818</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.55574941201073</v>
+        <v>1.345044131595049</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.250230439900962</v>
+        <v>1.141807847213682</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.426381019066547</v>
+        <v>1.838357096513417</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.559564374026417</v>
+        <v>1.570534765393888</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.476487615528244</v>
+        <v>1.525167451507041</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.478346526367561</v>
+        <v>1.160056030443492</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.530175004021065</v>
+        <v>1.396772032682241</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.438630145209932</v>
+        <v>1.452801252376683</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.414963826760543</v>
+        <v>1.854363532593436</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.075258831272639</v>
+        <v>1.538683292492162</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.393058559602134</v>
+        <v>1.08871367004743</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.655376066002833</v>
+        <v>1.569598289122995</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.431698876451163</v>
+        <v>1.613037491903833</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.473121424547498</v>
+        <v>1.596480076128665</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.464443096587568</v>
+        <v>1.705534846379066</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.342387159736014</v>
+        <v>1.688972242876273</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.472742641981376</v>
+        <v>1.471869011418939</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.496949077873058</v>
+        <v>1.505361133213341</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.265652701734146</v>
+        <v>1.522339244488605</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.305245502794222</v>
+        <v>1.490710458168573</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.464763478975911</v>
+        <v>1.508433977675118</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.488276188348236</v>
+        <v>1.49682248110318</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1.532068482415521</v>
+        <v>1.340589867432112</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.348969730723993</v>
+        <v>1.604352712419412</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.2247784307792</v>
+        <v>1.567827642705176</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.272647725539767</v>
+        <v>1.295302368491455</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.526242468849187</v>
+        <v>1.309421709920073</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.528999855690735</v>
+        <v>1.543470888375221</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.379762698785232</v>
+        <v>1.470275594993196</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.507138760406198</v>
+        <v>1.568440486940891</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.412861385950576</v>
+        <v>1.622271252668662</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.482393749489384</v>
+        <v>1.458340534244406</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.641672831029089</v>
+        <v>1.174490413136223</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.796552004056048</v>
+        <v>1.524880716418059</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.570782700154248</v>
+        <v>1.433973067217147</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.436192664612908</v>
+        <v>1.50590312726503</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1.556548873299489</v>
+        <v>1.60602417485905</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.353396302597851</v>
+        <v>1.837075584933514</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.280246043738024</v>
+        <v>1.432545354322671</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.455649155778533</v>
+        <v>1.697183867518648</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.484897563365386</v>
+        <v>1.489403363322197</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.534481744989923</v>
+        <v>1.518679543301465</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.385365914002236</v>
+        <v>1.184645669157753</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.277062320374281</v>
+        <v>1.442865191682859</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.464116474322388</v>
+        <v>1.727994319919586</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.362122640963702</v>
+        <v>1.289861937597435</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="F161">
-        <v>1.351108848388965</v>
+        <v>1.300544215834407</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.524047141640328</v>
+        <v>1.30118157995962</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.588848684599689</v>
+        <v>1.612513972090504</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.525337313605996</v>
+        <v>1.562983000533306</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.483993611817427</v>
+        <v>1.389375718901839</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.621569640653897</v>
+        <v>1.658056682840932</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.518031717989155</v>
+        <v>1.734884003650222</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.617297177040862</v>
+        <v>1.352967478740679</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.239988157871852</v>
+        <v>1.54481146147292</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.291626603421421</v>
+        <v>1.70005077909944</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.625733802162292</v>
+        <v>1.538169840697752</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.307640189653446</v>
+        <v>1.365175119730114</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.721067128147282</v>
+        <v>1.566142051455044</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.48858032298314</v>
+        <v>1.609833838637253</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.600861210095453</v>
+        <v>1.63248257035972</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.658695855637869</v>
+        <v>1.483371609516946</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.390046034821657</v>
+        <v>1.457957312765127</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.756576156426558</v>
+        <v>1.498388468969816</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.600935154575646</v>
+        <v>1.464375147737744</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.677681208799586</v>
+        <v>1.514197669817028</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="F181">
-        <v>1.885569370433708</v>
+        <v>1.414110378859942</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.462021685961016</v>
+        <v>1.709742235893571</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.488531694457915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.271841178475501</v>
+        <v>1.328271358160536</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.480963982273849</v>
+        <v>1.588873435886045</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.449106272536962</v>
+        <v>1.57083396778564</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.797001227710785</v>
+        <v>1.461441109248921</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.435993594064464</v>
+        <v>1.51725217726037</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.468411303842757</v>
+        <v>1.366277363673821</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.457346841117643</v>
+        <v>1.564267274875322</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.435244049808336</v>
+        <v>1.507685955357345</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.442152552161357</v>
+        <v>1.519025627046047</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.47900521752101</v>
+        <v>1.252769398499434</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.613371838049004</v>
+        <v>1.616957093096588</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.482288618687073</v>
+        <v>1.570099640667456</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.490502728051155</v>
+        <v>1.669133191617636</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.737946665874307</v>
+        <v>1.685803099148998</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.323277448081656</v>
+        <v>1.38794010102704</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.62301582115651</v>
+        <v>1.343366199111304</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.400291989887969</v>
+        <v>1.240292743523997</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.660162247635619</v>
+        <v>1.675140081884779</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.454188017223571</v>
+        <v>1.277510126523514</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.434747172080445</v>
+        <v>1.45267601992304</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.623657487569316</v>
+        <v>1.68823802855814</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.675570574611814</v>
+        <v>1.399700486706704</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.5448372463973</v>
+        <v>1.552896543685817</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.505884473512643</v>
+        <v>1.670471974831148</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.303240913859236</v>
+        <v>1.414780639298372</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.339973022625129</v>
+        <v>1.359503166630203</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.478182235049089</v>
+        <v>1.30274109821065</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.481923040862667</v>
+        <v>1.530636302744993</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.607194723964723</v>
+        <v>1.578236089496287</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.623390101673787</v>
+        <v>1.687240092675713</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.734858875134591</v>
+        <v>1.125182390638104</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.536212723331114</v>
+        <v>1.526673678799984</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.46361202116179</v>
+        <v>1.485962714656049</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.481257194742048</v>
+        <v>1.674224795515192</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.768844503356465</v>
+        <v>1.450582500493351</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.436704445848309</v>
+        <v>1.709082114676159</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.63805577276551</v>
+        <v>1.391195850702861</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.463308189591899</v>
+        <v>1.448363989953778</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>1.514567012388143</v>
+        <v>1.564262591954223</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.334486992451534</v>
+        <v>1.362971689839326</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.480444828507657</v>
+        <v>1.579167857036443</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.626881097183531</v>
+        <v>1.410683564905552</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.584790858643534</v>
+        <v>1.48284869834326</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.215687027931218</v>
+        <v>1.275156586576544</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.386580489570873</v>
+        <v>1.807147246945167</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.531279086397623</v>
+        <v>1.436821626027852</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.354038384937948</v>
+        <v>1.319981061800861</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.360246195543553</v>
+        <v>1.583500532191426</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.734324253278831</v>
+        <v>1.339400764198797</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.535560932174033</v>
+        <v>1.639017367701737</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.488179454278553</v>
+        <v>1.502586110725191</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.460560003238385</v>
+        <v>1.718364285211154</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.777689335041331</v>
+        <v>1.485649832869834</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.433715174136995</v>
+        <v>1.396845416389743</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.597446606675933</v>
+        <v>1.554323599838923</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.390842981995198</v>
+        <v>1.397743396582913</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.423495298343042</v>
+        <v>1.642880253196431</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.278600127421066</v>
+        <v>1.650289110055725</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.591293231127999</v>
+        <v>1.426876437486892</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.480747962003697</v>
+        <v>1.14683279425845</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.35173689500289</v>
+        <v>1.463229728554056</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.664796614031927</v>
+        <v>1.584242295308426</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.4633933038346</v>
+        <v>1.631010196044428</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.810323317656012</v>
+        <v>1.586953766708696</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.63009226899262</v>
+        <v>1.496901786231057</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.570224296767782</v>
+        <v>1.338196380245997</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.72947292573181</v>
+        <v>1.413056164817935</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.564151713402532</v>
+        <v>1.508219730242482</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.597730358212171</v>
+        <v>1.482669557541572</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.308018016249757</v>
+        <v>1.42331772802631</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.645121025661966</v>
+        <v>1.464894972435014</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.606406639164226</v>
+        <v>1.612550929394921</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F256">
-        <v>1.637831681309851</v>
+        <v>1.467788401708181</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.483043676550098</v>
+        <v>1.316155027123677</v>
       </c>
     </row>
   </sheetData>
